--- a/backend/epic_app/tests/test_data/xlsx/nationalframeworkquestions.xlsx
+++ b/backend/epic_app/tests/test_data/xlsx/nationalframeworkquestions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\EPIC-Tool\backend\epic_app\tests\test_data\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C061B700-FB56-4658-94EB-5F1FAB4F1467}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D04BE5-2D1A-4E3A-A878-56F6DFBC9247}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nationalframeworkquestions" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="141">
   <si>
     <t>Program areas</t>
   </si>
@@ -378,12 +378,6 @@
     <t>Flood Monitoring</t>
   </si>
   <si>
-    <t>Flood monitoring, forecasting, and warning is a complex multi-agency process that requires coordination and technical expertise. Figure 12.3 depicts the general relationship between the three key agencies for producing river and coastal flood forecasts and warnings.
-The “weather enterprise” as discussed in Chapter 5, consisting of the NMS working in collaboration with the private sector and regional and global weather centers, is the source of information for weather data and forecasts. This weather information is an essential input into flood forecasts. 
-For coastal flooding, the NMS typically combines weather forecasts and oceanographic information (including tides) with storm surge models to issue forecasts in the form of the storm tide height over normal sea level. Ideally, the coastal floodplains should be mapped, and the forecast can also provide information on how far inland the storm tide will extend and its potential impacts.
-For river flooding, the weather information needs to be combined with watershed hydrological and river hydraulic models to forecast river levels. Ideally, the floodplain will have been mapped and the forecast can include information on the extent and depth of the flooding, as well as potential impacts. Machine-based learning models that correlate weather and watershed conditions to river levels are also becoming more common as a supplement to traditional river flood forecasting methods (Noymanee and Theeramunkong 2019).</t>
-  </si>
-  <si>
     <t>Flood Emergency Preparedness, Response, and Relief</t>
   </si>
   <si>
@@ -499,9 +493,6 @@
   </si>
   <si>
     <t>Deserunt laboris voluptate ea laborum exercitation mollit do.</t>
-  </si>
-  <si>
-    <t>Minim reprehenderit in eiusmod aute et est amet voluptate enim consectetur.</t>
   </si>
   <si>
     <t>Non incididunt qui laborum aliquip eiusmod ipsum non ad qui et reprehenderit.</t>
@@ -1371,21 +1362,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:XFD40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.33203125" customWidth="1"/>
-    <col min="4" max="4" width="191.44140625" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.28515625" customWidth="1"/>
+    <col min="4" max="4" width="191.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1399,7 +1390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1413,7 +1404,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1427,7 +1418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1441,7 +1432,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1455,7 +1446,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1469,7 +1460,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1483,7 +1474,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1497,7 +1488,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1511,7 +1502,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1525,7 +1516,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1539,7 +1530,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -1550,10 +1541,10 @@
         <v>38</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -1564,10 +1555,10 @@
         <v>40</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -1578,10 +1569,10 @@
         <v>42</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -1592,10 +1583,10 @@
         <v>44</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -1606,10 +1597,10 @@
         <v>46</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -1620,10 +1611,10 @@
         <v>48</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -1637,7 +1628,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -1648,10 +1639,10 @@
         <v>54</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -1662,10 +1653,10 @@
         <v>56</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -1676,10 +1667,10 @@
         <v>58</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
@@ -1690,10 +1681,10 @@
         <v>60</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -1704,10 +1695,10 @@
         <v>63</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -1718,10 +1709,10 @@
         <v>65</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -1732,10 +1723,10 @@
         <v>67</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -1746,10 +1737,10 @@
         <v>69</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -1760,10 +1751,10 @@
         <v>71</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>72</v>
       </c>
@@ -1774,10 +1765,10 @@
         <v>74</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>72</v>
       </c>
@@ -1788,10 +1779,10 @@
         <v>76</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>72</v>
       </c>
@@ -1802,10 +1793,10 @@
         <v>78</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>79</v>
       </c>
@@ -1816,10 +1807,10 @@
         <v>81</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>79</v>
       </c>
@@ -1830,10 +1821,10 @@
         <v>83</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>84</v>
       </c>
@@ -1844,10 +1835,10 @@
         <v>86</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>84</v>
       </c>
@@ -1858,10 +1849,10 @@
         <v>88</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>84</v>
       </c>
@@ -1872,10 +1863,10 @@
         <v>90</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>91</v>
       </c>
@@ -1886,10 +1877,10 @@
         <v>93</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>91</v>
       </c>
@@ -1900,10 +1891,10 @@
         <v>95</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>91</v>
       </c>
@@ -1914,10 +1905,10 @@
         <v>97</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>91</v>
       </c>
@@ -1928,77 +1919,63 @@
         <v>99</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D41" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C42" s="1" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>105</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="B43" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>106</v>
-      </c>
-      <c r="B43" t="s">
-        <v>107</v>
-      </c>
-      <c r="C43" t="s">
-        <v>108</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>106</v>
-      </c>
-      <c r="B44" t="s">
-        <v>109</v>
-      </c>
-      <c r="C44" t="s">
-        <v>110</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2008,6 +1985,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FD03EABF3F2FB448DAE5CD2CE5D353B" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="98b843f414b1d31b21b2b135980a1ce8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="be3c9163-79a1-42b6-a061-0833e6c3add8" xmlns:ns4="4e51305d-5de6-45a6-8f4b-ddcbc1e897ba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ed93da940882836d4864d93d9a5709d2" ns3:_="" ns4:_="">
     <xsd:import namespace="be3c9163-79a1-42b6-a061-0833e6c3add8"/>
@@ -2236,12 +2219,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2252,6 +2229,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8D8A36-5C22-41CB-A499-AFEC79E65983}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="4e51305d-5de6-45a6-8f4b-ddcbc1e897ba"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="be3c9163-79a1-42b6-a061-0833e6c3add8"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3A75D92-A57E-48DB-AFD0-4E9402F2677E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2270,23 +2264,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8D8A36-5C22-41CB-A499-AFEC79E65983}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="4e51305d-5de6-45a6-8f4b-ddcbc1e897ba"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="be3c9163-79a1-42b6-a061-0833e6c3add8"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CF3C6A2-6542-4AA0-8AFE-941499A10862}">
   <ds:schemaRefs>

--- a/backend/epic_app/tests/test_data/xlsx/nationalframeworkquestions.xlsx
+++ b/backend/epic_app/tests/test_data/xlsx/nationalframeworkquestions.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\EPIC-Tool\backend\epic_app\tests\test_data\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deltares-my.sharepoint.com/personal/ana_nunezsanchez_deltares_nl/Documents/Documents/Floods and Droughts/EPIC Response Tool/Software/Excel Sheets/National Sector Frameworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D04BE5-2D1A-4E3A-A878-56F6DFBC9247}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="8_{EE4BA733-F52C-4623-9CDA-4DF4D6CF6CA0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{BC237AEC-4DA5-462C-9104-FCCD57AE7D4A}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nationalframeworkquestions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +28,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="129">
+  <si>
+    <t>Does the Water Law require the preparation and describes the minimal content of basin management plans?</t>
+  </si>
   <si>
     <t>Program areas</t>
   </si>
@@ -39,33 +42,15 @@
     <t>Program description</t>
   </si>
   <si>
-    <t>Question</t>
-  </si>
-  <si>
     <t>National Sectoral Frameworks</t>
-  </si>
-  <si>
-    <t>Water Resource Management</t>
   </si>
   <si>
     <t xml:space="preserve">The dominant paradigm for WRM is “integrated water resources management (IWRM)”. While there is no official definition of IWRM, a commonly used definition is that it is “a process which promotes the coordinated development and management of water, land and related resources in order to maximize economic and social welfare in an equitable manner without compromising the sustainability of vital ecosystems and the environment” (GWP 2000). Recognized at the international level more than 30 years ago at the 1992 Earth Summit in Rio de Janeiro, Target 6.5 of Sustainable Development Goal 6 on Clean Water and Sanitation calls for the implementation of IWRM at all levels by 2030. 
 The basic objective of WRM is the management of water as a natural resource, the use of which is fundamental to all socioeconomic activities, but which at the same time plays a vital ecological function that needs to be protected. As such, WRM seeks to allocate water among different user sectors (such as water supply, agriculture, industry, and power generation) and water users. It promotes the development of water resources while also seeking to prevent or minimize water pollution and to ensure appropriate water quality. It sets and enforces minimum or environmental flows to enable people to meet basic needs and to protect aquatic ecosystems and the livelihoods of those who depend on those ecosystems. Many of the programs identified in the upper part of the EPIC Response Framework fall under the general, but not necessarily exclusive, domain of the WRM framework, including river basin planning, water resources infrastructure, and adaptable water allocation. It follows that an effective national framework for hydro-climatic risk management system generally requires a functional and comprehensive national framework for WRM. </t>
   </si>
   <si>
-    <t>Is there a national strategic water resources management plan in place?</t>
-  </si>
-  <si>
-    <t>Disaster Risk Management</t>
-  </si>
-  <si>
     <t>DRM is a broad topic that has seen significant evolution over recent years, encapsulated by the recent Sendai Framework for Disaster Risk Reduction 2015-2030. Among the four priorities of the Sendai Framework is Priority 2: “Strengthening disaster risk governance to manage disaster risk”. This priority notes “the vital role of disaster risk governance at the national, regional and global levels in terms of the management of disaster risk reduction and ensuring the coherence of national and local frameworks of laws, regulations and public policies that, by defining roles and responsibilities, guide, encourage and incentivize the public and private sectors to take action and address disaster risk.”   
 Floods and droughts are invariably included among the types of natural hazards that are subject to a disaster risk management (DRM) framework along with storms, earthquakes, volcanoes, and disease outbreaks, as well as anthropogenic hazards such as transportation and industrial accidents. It follows  that, as with WRM, an effective national framework for hydro-climatic risk management includes the need for an effective, functional, and comprehensive national DRM framework.</t>
-  </si>
-  <si>
-    <t>Is there a national strategic disater risk management plan in place?</t>
-  </si>
-  <si>
-    <t>Drought Risk Management</t>
   </si>
   <si>
     <t>Drought risk management is a complex endeavor that requires both WRM and DRM perspectives, but also necessitates going beyond these traditional domains. International recognition of the importance of droughts was reflected in the 1994 United Nations Convention to Combat Desertification (UNCCD) which calls upon decision makers and water and land managers to take a proactive, coordinated, and holistic approach to drought risk management.   
@@ -75,19 +60,10 @@
 In summary, although WRM and DRM are intimately linked to drought management, it is generally necessary to develop a specific drought framework that incorporates the unique elements of drought monitoring, impact assessment, and risk characterization, in addition to providing the basis for drought agricultural response and recovery programs. In some poorer countries with large rural populations, WRM and DRM frameworks may not even exist or may be underdeveloped, and in such cases the burden of managing droughts may fall primarily on the agriculture agency and local governments.</t>
   </si>
   <si>
-    <t>Is there a national strategic drought risk management plan in place?</t>
-  </si>
-  <si>
-    <t>Flood Risk Management</t>
-  </si>
-  <si>
     <t>In many countries, the combination of WRM, DRM, and Hrydro-Met sector frameworks—if properly synchronized—should address most issues related to flood risk management. However, some more advanced countries have also found it useful to adopt additional flood management specific laws or national policies to help bind these sector frameworks more closely together. Some examples are provided below:
 The European Union’s Water Framework Directive  and Floods Directive , between them require member states to adopt a common approach to river basin management and flood risk assessment and management planning. As shown in figure 3.4, in Japan there are three major interlocking laws related to flood risk management, the DRM Act, the River Act (which acts as a water resources law), and a specific Flood Protection Act. In the United States, the Federal Interagency Floodplain Management Task Force helps bring together all water-related agencies and was established under the 1975 Water Resources and Development Act</t>
   </si>
   <si>
-    <t>Do the national strategic water resources management plan and the national disaster risk management plan consider flood risk management aspects?</t>
-  </si>
-  <si>
     <t>Whole-of-Society Approach</t>
   </si>
   <si>
@@ -96,9 +72,6 @@
   <si>
     <t xml:space="preserve">Local governments play pivotal roles in responding to flood and drought disasters (World Bank 2019). As highlighted in Chapter 12, local governments need to work in concert with national DRM agencies to respond to floods. They serve as one of many channels to warn about floods, to help evacuate residents, to ensure public safety, to provide relief to impacted people, and to help guide recovery efforts. Chapter 11 notes how local governments can work in concert with national agencies on drought issues; they can help disseminate information as the drought unfolds, implement emergency drought measures, administer drought assistance, and support social protection programs.
 Local governments also play important roles in flood and drought risk mitigation (Gencer 2017). Chapter 10 on floodplain management highlights their central role in land use planning, building regulations, and preparing local flood mitigation plans. They also oversee urban water supply and drought contingency plans, as highlighted in Chapter 5. Local governments invest in localized water resources infrastructure to mitigate flood and drought hazards, including stormwater drainage systems, local flood control projects, and water supply and sanitation systems (typically through their water utilities). The capacity and authority of local governments to contribute to hydro-climatic risk management varies considerably among, and sometimes within, countries. A 2017 survey examined the authority, capacity, and responsibilities of 151 cities around the world with respect to disaster risk reduction. </t>
-  </si>
-  <si>
-    <t>Are local governments in place to plan, excecute, monitor and evaluate?</t>
   </si>
   <si>
     <t>Public Participation &amp; Stakeholder Engagement</t>
@@ -109,9 +82,6 @@
 While there are numerous advantages associated with public participation and stakeholder engagement, if not properly structured and targeted it may not be fully successful and can even be counterproductive. For example, a substandard public participation process can amplify privileged voices and underrepresent marginalized groups, resulting in so-called elite capture. To implement effective public participation and stakeholder engagement, agencies must make it a priority, generate a robust knowledge base of the circumstances and conflicting interests of the communities they serve, build capacity and train staff, develop targeted and inclusive participatory processes, and allocate the necessary time and budget.</t>
   </si>
   <si>
-    <t>Are stakeholders adequately engaged in all phases of the planning process?</t>
-  </si>
-  <si>
     <t>Social Inclusion</t>
   </si>
   <si>
@@ -119,25 +89,16 @@
 Social inclusion matters in and of itself, emanating from the principles of human rights and social justice. It also matters because social exclusion can carry substantial social, political, and economic costs. Exclusion often has a negative impact on human capital, preventing individuals from achieving their full potential at multiple levels, resulting in lowered education levels and impaired health. There is ample evidence that human capital is closely correlated with economic development (World Bank 2013). Moreover, excluding large groups of people can destabilize society, generating political unrest or civil strife.</t>
   </si>
   <si>
-    <t>Are plans drafted and executed through a socially inclusive manner?</t>
-  </si>
-  <si>
     <t>Education &amp; Risk Communication</t>
   </si>
   <si>
     <t xml:space="preserve">Each agency should strive to help educate the general public and promote professional development. Educational programs increase public awareness and knowledge about sector issues. In doing so, they provide the public and professionals with the necessary evidence to make informed decisions and to take responsible action. Since education has strong public good characteristics, the agency should use part of its budget and professional expertise for educational programs. These can be delivered directly by the agency or in partnership with professional organizations, universities, schools, civil society, and businesses. The agency can provide grants or technical assistance to its partner organizations to further support educational activities. Risk communication is often distinguished from emergency or crisis communication. Risk communication needs to be done before a hazardous event occurs to inform the public about their potential exposure and to encourage them to engage in precautionary measures to avoid, reduce, and transfer these risks. Emergency communication is then used to inform people once the event is imminent or underway. After the emergency or crisis, risk communication comes into play again to help present what occurred on the basis of lessons learned (OECD 2016a). Communicating hydro-climatic risk, especially in the context of a changing climate, is challenging. Estimating risks embodies many complex concepts, including at its core the probabilistic assessment of different hazard levels—which is typically beyond the level of most non-experts to fully grasp and act upon. Research on risk communication has shown that risk is best understood when the communication is simple, tangible, relevant, and personal.  Risk should be communicated in a way that is not only clear and quantifiable, but also that leads people to recognize how they could be personally affected and that motivates them to act. </t>
   </si>
   <si>
-    <t>Are flood and drought risks adequately educated and communicated to all levels of society (e.g. in schools or through social-media channels?)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Scientific Collaboration </t>
   </si>
   <si>
     <t>The scientific complexity of hydro-climatic risk management is enormous. The expertise to address this complexity, for both social and natural sciences, spans a broad range of organizations, including national agencies, research institutes, international organizations, and the private sector. The traditional model of a “supplier” of scientific information—such as a research institute, and a “user” of the information—such as a national agency, is outdated. There is a growing recognition of the need to have both science-informed policy and policy-informed science to deal with climate adaptation (Daniels and others 2020). In other words, scientific organizations and national agencies need to effectively collaborate to generate effective science applied to flood and drought risk management. Collaboration between national agencies and the research community to generate science-informed policy and policy-informed science is not an easy task. A recent framework proposed by the Stockholm Environment Institute provides some general guidelines. Key elements include: (1) improving the way participants work together by designing co-exploration and co-production processes that bring together different fields across the science-society interface; (2) working together to understand or define decision-relevant needs of the agency; and (3) increasing the capacity for collaboration by building strong networks (Daniels and others 2020).</t>
-  </si>
-  <si>
-    <t>Do governments collaborate with scientific communities (e.g. universities) with the primary goal to develop science which can be used to strengthen and better inform decision-making processes?</t>
   </si>
   <si>
     <t>Open Data</t>
@@ -149,9 +110,6 @@
 Finally, open data can help drive innovation, economic growth, and environmental sustainability. As highlighted in the section on scientific collaboration, much of the expertise for managing flood and drought risks and adapting to a changing climate exists outside of national agencies. Providing these scientific and research organizations with information will enable them to undertake more accurate studies and propose better solutions. As a corollary, publicly-funded research should also be brought into the public domain, and some private companies may also find it beneficial to publicly share information. Open data will also help the private sector to develop products that can help to reduce hydro-climatic risks. As an example, the insurance industry needs extensive information—much of it collected by government—to formulate and properly price flood or drought insurance.</t>
   </si>
   <si>
-    <t>Is hydro-climatic information and data collected and stored considering the principles of "open-data"?</t>
-  </si>
-  <si>
     <t>Hydrological and Meteorological Services</t>
   </si>
   <si>
@@ -163,37 +121,6 @@
 Hydromet laws need to evolve quickly to adjust to changing technology and to meet the increasing demands from users, specifically from the WRM, DRM, and Drought Communities. Often there is an overemphasis on NMS/NHS functions with insufficient attention paid to the broader need of providing weather and hydrological services. This can result in obligations and regulations imposed on others and insufficient accountability for what the NMS/NHS should produce.</t>
   </si>
   <si>
-    <t>National Water Data Program</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The collection of hydrological data is often spread out across multiple national agencies that collect different types of information, for example surface water, groundwater, and water quality. Ideally, there would be a single (or potentially multiple) program to consolidate this information and make it freely and easily accessible to the public. There are various approaches for doing this, including creation of hydro-informatics centers, open water data initiatives, and the establishment of national water data systems. Ideally the NHS or natural resources management agency should be mandated to facilitate a national water data program and enter into interagency agreements and operational protocols to ensure the smooth flow of high-quality data. This would generate enormous value added for water-related planning, design of water infrastructure, and research. Every agency working on hydro-climatic risk management would benefit from combining their water-related information through a national water data program. </t>
-  </si>
-  <si>
-    <t>Drought Monitoring and Impact Assessment</t>
-  </si>
-  <si>
-    <t>This topic is explored in depth in Chapter 11, which notes that droughts generally evolve gradually over time, cover large areas, and have broad social, economic, and environmental impacts. A national drought monitoring program is usually the best approach, requiring a nexus of cooperation among NMS/NHS, WRM, agriculture, and DRM agencies. The NMS/NHS plays a critical role in monitoring drought hazards by providing analysis on “dryness” conditions (World Bank 2019). However, this hydro-met information is only part of the story, as droughts are assessed primarily by their impacts on farmers, cities, and the environment. The NMS/NHS needs to work closely with the other agencies, local governments, and other parties to better understand vulnerabilities, risks, and appropriate drought response actions. The National Drought Framework discussed in Chapter 3 should help facilitate interagency agreements and operational protocols to ensure this nexus operates smoothly.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flood Forecasting and Warning </t>
-  </si>
-  <si>
-    <t xml:space="preserve">This topic is explored in depth in Chapter 12, which notes that different types of flood require different approaches. Flood forecasts and warning require a cooperation nexus among the NMS/NHS, WRM, and DRM agencies. Clear interagency agreements and operational protocols need to be developed to ensure that this nexus operates efficiently. One option is to establish a National Flood Center which can foster collaboration and flexibility to handle a variety of floods. </t>
-  </si>
-  <si>
-    <t>Agrometeorological Advisory Services</t>
-  </si>
-  <si>
-    <t>Agro-Climate Advisory Services: As highlighted in Chapter 11, farmers are particularly prone to be affected by fluctuations in weather and by extreme hydro-climatic events, particularly droughts. It is estimated that 20-80 percent of the inter-annual variability of crop yields is associated with weather phenomena, and 5-10 percent of national agricultural production losses are associated with climate variability (WMO 2019). NMS/NHS can team with agriculture agencies to help farmers better cope with climate variability and extreme events through the provision of agro-climate advisory services. Farmers receive information at different time scales to help them make informed decisions. For example, weather forecasts up to a week in advance can help them make decisions regarding planting and harvesting, fertilizer application, and irrigation requirements. Seasonal forecasts on the order of months can inform cropping decisions and livestock strategies.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Climate Assessment </t>
-  </si>
-  <si>
-    <t xml:space="preserve">An NCA helps to inform the country about already observed changes, the current status of the climate, and anticipated trends for the future.  It typically provides analysis of the effects of climate change on the environment, agriculture, health, water resources, and coastal areas, and includes an analysis of flood and drought risks. An NCA can help guide adaptation actions across society by informing planning at all levels, influencing private investment decisions, and spurring actions to enhance climate resilience. The development of an NCA needs to be a collaborative effort with many national agencies, as well as other stakeholders. Although lead responsibility for the formulation of an NCA will vary by country, in every case the NMS/NHS needs to be front-and-center in the process as the leading authority on climate. 
-An NCA is a complex undertaking and less-affluent countries may need international assistance. Global experience has shown that the process of formulating an NCA and pondering the manifold impacts of climate change and its attendant risks is as important as the actual report—which in any case needs to be periodically updated. The various national agencies can build upon the knowledge gained through the NCA to develop more climate-sensitive sector strategies. </t>
-  </si>
-  <si>
     <t>Flood and Drought Risk Mitigation and Contingency Planning</t>
   </si>
   <si>
@@ -201,9 +128,6 @@
   </si>
   <si>
     <t xml:space="preserve">River basin plans guide the development, management, allocation, and use of water and related resources within a specific geographical area. Ideally, this is an actual river basin, but in some cases the planning area may be limited due to transboundary constraints or in order to ensure a more tractable planning size. In some countries, a single river basin is simply too large to plan as a single unit, so it is necessary to divide it into sub-basins. River basin plans are typically integrated plans, addressing water quantity, water quality, surface water and groundwater, and the protection of water and aquatic ecosystems while enabling the integration of upstream and downstream interests. Basin plans should also include issues such as institutional responsibilities, implementation arrangements, budgets, and monitoring. </t>
-  </si>
-  <si>
-    <t>Does the Water Law require the preparation and describes the minimal content of basin management plans?</t>
   </si>
   <si>
     <t>Coastal Zone Management Planning</t>
@@ -234,9 +158,6 @@
     <t>Local Flood Risk Mitigation Planning</t>
   </si>
   <si>
-    <t>Missing</t>
-  </si>
-  <si>
     <t>Healthy Watersheds</t>
   </si>
   <si>
@@ -378,6 +299,12 @@
     <t>Flood Monitoring</t>
   </si>
   <si>
+    <t>Flood monitoring, forecasting, and warning is a complex multi-agency process that requires coordination and technical expertise. Figure 12.3 depicts the general relationship between the three key agencies for producing river and coastal flood forecasts and warnings.
+The “weather enterprise” as discussed in Chapter 5, consisting of the NMS working in collaboration with the private sector and regional and global weather centers, is the source of information for weather data and forecasts. This weather information is an essential input into flood forecasts. 
+For coastal flooding, the NMS typically combines weather forecasts and oceanographic information (including tides) with storm surge models to issue forecasts in the form of the storm tide height over normal sea level. Ideally, the coastal floodplains should be mapped, and the forecast can also provide information on how far inland the storm tide will extend and its potential impacts.
+For river flooding, the weather information needs to be combined with watershed hydrological and river hydraulic models to forecast river levels. Ideally, the floodplain will have been mapped and the forecast can include information on the extent and depth of the flooding, as well as potential impacts. Machine-based learning models that correlate weather and watershed conditions to river levels are also becoming more common as a supplement to traditional river flood forecasting methods (Noymanee and Theeramunkong 2019).</t>
+  </si>
+  <si>
     <t>Flood Emergency Preparedness, Response, and Relief</t>
   </si>
   <si>
@@ -414,104 +341,143 @@
 The DRM law should mandate the DRM agency to work with the finance agency to develop a disaster risk financing strategy. The role of the DRM agency in administering or overseeing disaster funds should be outlined in the DRM or budget law. The law should require the DRM agency to develop procedures for recommending or declaring a state of national emergency, as this may be used to trigger contingent credit lines or provide access to a national disaster fund.</t>
   </si>
   <si>
-    <t>Do labore Lorem occaecat nisi cupidatat eu magna Lorem qui cupidatat excepteur.</t>
-  </si>
-  <si>
-    <t>Consequat mollit amet labore culpa in cillum enim elit Lorem sunt tempor.</t>
-  </si>
-  <si>
-    <t>Eu ut sint elit in sit adipisicing est occaecat elit culpa ullamco id labore.</t>
-  </si>
-  <si>
-    <t>Pariatur reprehenderit in ipsum ullamco aliqua deserunt veniam do sint cupidatat sit.</t>
-  </si>
-  <si>
-    <t>Id aliquip consequat pariatur ipsum ipsum aliquip dolor reprehenderit ad.</t>
-  </si>
-  <si>
-    <t>Irure ex deserunt amet in magna adipisicing.</t>
-  </si>
-  <si>
-    <t>Ut reprehenderit qui consequat incididunt commodo pariatur tempor.</t>
-  </si>
-  <si>
-    <t>Fugiat nulla veniam duis labore ea veniam deserunt.</t>
-  </si>
-  <si>
-    <t>Pariatur culpa mollit non ut pariatur.</t>
-  </si>
-  <si>
-    <t>Est exercitation eiusmod voluptate labore Lorem culpa velit duis anim laborum eiusmod irure labore cillum.</t>
-  </si>
-  <si>
-    <t>Voluptate ipsum cupidatat ad commodo eiusmod deserunt exercitation laboris ea qui elit do ullamco deserunt.</t>
-  </si>
-  <si>
-    <t>Eu enim do deserunt consequat Lorem aliquip magna.</t>
-  </si>
-  <si>
-    <t>Sunt dolor ex adipisicing ex labore consectetur veniam exercitation.</t>
-  </si>
-  <si>
-    <t>Ullamco irure est minim eiusmod ullamco occaecat et labore sint veniam incididunt est ut.</t>
-  </si>
-  <si>
-    <t>Reprehenderit in exercitation laborum ut duis ipsum sint sunt.</t>
-  </si>
-  <si>
-    <t>Proident laborum esse aliqua dolor enim nulla esse esse consequat ut quis.</t>
-  </si>
-  <si>
-    <t>Nisi anim eu culpa id.</t>
-  </si>
-  <si>
-    <t>Do qui laborum adipisicing aliquip id aliqua.</t>
-  </si>
-  <si>
-    <t>Nostrud tempor adipisicing et anim nostrud cillum voluptate fugiat voluptate proident commodo deserunt.</t>
-  </si>
-  <si>
-    <t>Aliquip dolore eu adipisicing commodo mollit eiusmod exercitation non laborum eu.</t>
-  </si>
-  <si>
-    <t>Laborum qui et dolore velit laborum.</t>
-  </si>
-  <si>
-    <t>Dolore voluptate dolor labore qui adipisicing eu do amet.</t>
-  </si>
-  <si>
-    <t>Elit laborum aliquip voluptate aliqua occaecat do.</t>
-  </si>
-  <si>
-    <t>Voluptate sint ad quis reprehenderit qui nisi commodo consectetur cupidatat consectetur voluptate pariatur amet.</t>
-  </si>
-  <si>
-    <t>Proident consectetur sit sint nostrud eu amet sunt ullamco consectetur esse.</t>
-  </si>
-  <si>
-    <t>Amet excepteur sint ex do.</t>
-  </si>
-  <si>
-    <t>Deserunt laboris voluptate ea laborum exercitation mollit do.</t>
-  </si>
-  <si>
-    <t>Non incididunt qui laborum aliquip eiusmod ipsum non ad qui et reprehenderit.</t>
-  </si>
-  <si>
-    <t>Ex proident eu velit dolore excepteur qui.</t>
-  </si>
-  <si>
-    <t>Tempor nulla ex consectetur cupidatat dolor et nisi tempor quis labore.</t>
-  </si>
-  <si>
-    <t>Tempor eu eiusmod amet magna do adipisicing dolor ut proident.</t>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Is there a national strategic water resources management plan in place?</t>
+  </si>
+  <si>
+    <t>Is there a national strategic disater risk management plan in place?</t>
+  </si>
+  <si>
+    <t>Is there a national strategic drought risk management plan in place?</t>
+  </si>
+  <si>
+    <t>Do the national strategic water resources management plan and the national disaster risk management plan consider flood risk management aspects?</t>
+  </si>
+  <si>
+    <t>Are local governments in place to plan, excecute, monitor and evaluate?</t>
+  </si>
+  <si>
+    <t>Are stakeholders adequately engaged in all phases of the planning process?</t>
+  </si>
+  <si>
+    <t>Are plans drafted and executed through a socially inclusive manner?</t>
+  </si>
+  <si>
+    <t>Are flood and drought risks adequately educated and communicated to all levels of society (e.g. in schools or through social-media channels?)</t>
+  </si>
+  <si>
+    <t>Do governments collaborate with scientific communities (e.g. universities) with the primary goal to develop science which can be used to strengthen and better inform decision-making processes?</t>
+  </si>
+  <si>
+    <t>Is hydro-climatic information and data collected and stored considering the principles of "open-data"?</t>
+  </si>
+  <si>
+    <t>Is there a national framework for coastal zone management planning in place, derived from e.g. specific coastal zone management laws, environmental laws, land use planning laws and/or ocean governance laws?</t>
+  </si>
+  <si>
+    <t>Is water supply governed through the framework of a water supply and sanitation law?</t>
+  </si>
+  <si>
+    <t>Is there a specific irrigation or agriculture law in place which sets out the requirement for the preperation of Irrigation Water Supply Plans?</t>
+  </si>
+  <si>
+    <t>Are local watershed management organizations in place?</t>
+  </si>
+  <si>
+    <t>Are watershed plans part of the integrated river basin management plans?</t>
+  </si>
+  <si>
+    <t>Is there an agriculture law in place as the overall framework for all agricultural-related activities?</t>
+  </si>
+  <si>
+    <t>Is there a forest law in place that governs actrivities in designated forest lands, with respect to a.o. forest management and timber harvesting, for both public and private land?</t>
+  </si>
+  <si>
+    <t>Are wetlands addressed in either a natural resources management law or a standalone wetlands law?</t>
+  </si>
+  <si>
+    <t>Does the water resources law include provisions requiring economic efficiency, sustainability, and transparency in the planning and design of WRI?</t>
+  </si>
+  <si>
+    <t>Is there a national dam safety program in place, governed through the national water resources law or in a stand-alone dame safety law?</t>
+  </si>
+  <si>
+    <t>Does the water resources law/coastal protection law highlight the need to ensure flood control infrastructure safety, while also clearly imposing responsibility for infrastructure maintenance and safety on the owners, imposing responsibility for regulatory oversight on the WRM agency?</t>
+  </si>
+  <si>
+    <t>Does the water resources law provide the basis for a water rights administration process?</t>
+  </si>
+  <si>
+    <t>Does the water resources law govern the use and management of groundwater resources?</t>
+  </si>
+  <si>
+    <t>Is there a national flood mapping program in place, mandated either through the water resources law or the DRM law?</t>
+  </si>
+  <si>
+    <t>Is land use planning regulated through the DRM law?</t>
+  </si>
+  <si>
+    <t>Does the DRM/water resources law specify the appropriate geographical scale for flood mitigation planning and their scope?</t>
+  </si>
+  <si>
+    <t>Does the drought law should highlight drought monitoring, forecasting, and risk and impact assessment as core functions?</t>
+  </si>
+  <si>
+    <t>Are responses to drought situations clearly described in the drought law?</t>
+  </si>
+  <si>
+    <t>Does the agricultural law provide the authorization for the establishment of the various agricultural disaster support programs?</t>
+  </si>
+  <si>
+    <t>Does the drought law highlight the importance of social protection programs during droughts and mandate that national agencies to provide social protection and develop specific drought contingency plans?</t>
+  </si>
+  <si>
+    <t>Is flood disaster recovery governed by the DRM law?</t>
+  </si>
+  <si>
+    <t>Is flood emergency preparedness, response and relief governed by the DRM law?</t>
+  </si>
+  <si>
+    <t>Is flood forecasting/warning governed by the the meteorlogical law?</t>
+  </si>
+  <si>
+    <t>Are budgetary laws and DRM laws in place that provide the legal and regulatory framework for disaster risk finance?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Co-Production of Services </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the national meteorological law includes hydrological topics or are these addressed in the water resources law? In the case of different law addressing metaorolgical and hydrologocal topics, are the metaorological and the water resources law seamessly integrated? </t>
+  </si>
+  <si>
+    <t>Is there a national meteorological law in place defining clear mandates for all the hydro-met actors, open data principles, revenue generation, research and development, ensuring public-private partnerships and collaboration with global initaitves,  and specific institutional arrangements for join monitoring and forecasting of hydro-climatic disasters?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic weather and hydrological services are the foundation for hydro-climatic risk management, but NMS/NHS also need to collaborate with other agencies to offer services on top of this foundation. Ideally, specific programs for the co-production of services should be included in the rmeteorological law as well as the relevent WRM, DRM and Agricultural laws. The way agencies collaborate needs to be further developed among the agencies and can take the form of executive decisions compalling agencies to collaborate, memoranda of understanding, and the promulgation of agency regulations defining the particular interaction between agencies </t>
+  </si>
+  <si>
+    <t>Do the meteorolgical law as well as the relevant WRM, DRM and Agricultural laws include specific programs for the co-production of services?</t>
+  </si>
+  <si>
+    <t>National Water Resource Management Sector Framework</t>
+  </si>
+  <si>
+    <t>National Disaster Risk Management Sector Framework</t>
+  </si>
+  <si>
+    <t>Overarching National Drought Risk Management Framework</t>
+  </si>
+  <si>
+    <t>Overarching Flood Risk Management Framework</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -642,12 +608,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1000,13 +960,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1362,639 +1323,618 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:XFD40"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.28515625" customWidth="1"/>
-    <col min="4" max="4" width="191.42578125" customWidth="1"/>
+    <col min="1" max="1" width="34.44140625" customWidth="1"/>
+    <col min="2" max="2" width="51.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="82.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="191.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="B15" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="D16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
         <v>30</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="C19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B20" t="s">
         <v>36</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="C21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="2" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="2" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="3" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="3" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="3" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="3" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="3" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>79</v>
-      </c>
-      <c r="B31" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>80</v>
       </c>
-      <c r="C31" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>79</v>
-      </c>
-      <c r="B32" t="s">
-        <v>82</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B41" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="C41" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B33" t="s">
-        <v>85</v>
-      </c>
-      <c r="C33" t="s">
-        <v>86</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>84</v>
-      </c>
-      <c r="B34" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34" t="s">
-        <v>88</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>84</v>
-      </c>
-      <c r="B35" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" t="s">
-        <v>90</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>91</v>
-      </c>
-      <c r="B36" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" t="s">
-        <v>93</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>91</v>
-      </c>
-      <c r="B37" t="s">
-        <v>94</v>
-      </c>
-      <c r="C37" t="s">
-        <v>95</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>91</v>
-      </c>
-      <c r="B38" t="s">
-        <v>96</v>
-      </c>
-      <c r="C38" t="s">
-        <v>97</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>91</v>
-      </c>
-      <c r="B39" t="s">
-        <v>98</v>
-      </c>
-      <c r="C39" t="s">
-        <v>99</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>105</v>
-      </c>
-      <c r="B42" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42" t="s">
-        <v>107</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>105</v>
-      </c>
-      <c r="B43" t="s">
-        <v>108</v>
-      </c>
-      <c r="C43" t="s">
-        <v>109</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>140</v>
+      <c r="D41" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FD03EABF3F2FB448DAE5CD2CE5D353B" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="98b843f414b1d31b21b2b135980a1ce8">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="be3c9163-79a1-42b6-a061-0833e6c3add8" xmlns:ns4="4e51305d-5de6-45a6-8f4b-ddcbc1e897ba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ed93da940882836d4864d93d9a5709d2" ns3:_="" ns4:_="">
-    <xsd:import namespace="be3c9163-79a1-42b6-a061-0833e6c3add8"/>
-    <xsd:import namespace="4e51305d-5de6-45a6-8f4b-ddcbc1e897ba"/>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004CF95EF2F384F0419312B394CBDE3AE2" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="31f6efdc87a01d4ba6154ecd9afe69b2">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="18fba281-3140-4e33-b78f-87df0c1efb23" xmlns:ns4="f7620e32-1325-4c29-861c-5840d24c4310" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ef933d5bbd2bd3eb58c8ad997b164a29" ns3:_="" ns4:_="">
+    <xsd:import namespace="18fba281-3140-4e33-b78f-87df0c1efb23"/>
+    <xsd:import namespace="f7620e32-1325-4c29-861c-5840d24c4310"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -2003,15 +1943,15 @@
               <xsd:all>
                 <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
@@ -2022,7 +1962,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="be3c9163-79a1-42b6-a061-0833e6c3add8" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="18fba281-3140-4e33-b78f-87df0c1efb23" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -2035,34 +1975,34 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="13" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="14" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="16" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+    <xsd:element name="MediaServiceLocation" ma:index="13" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -2085,10 +2025,10 @@
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4e51305d-5de6-45a6-8f4b-ddcbc1e897ba" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f7620e32-1325-4c29-861c-5840d24c4310" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -2107,14 +2047,14 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="SharingHintHash" ma:index="12" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+    <xsd:element name="SharingHintHash" ma:index="18" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -2219,41 +2159,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8D8A36-5C22-41CB-A499-AFEC79E65983}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CF3C6A2-6542-4AA0-8AFE-941499A10862}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="4e51305d-5de6-45a6-8f4b-ddcbc1e897ba"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="be3c9163-79a1-42b6-a061-0833e6c3add8"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3A75D92-A57E-48DB-AFD0-4E9402F2677E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8D8A36-5C22-41CB-A499-AFEC79E65983}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="18fba281-3140-4e33-b78f-87df0c1efb23"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f7620e32-1325-4c29-861c-5840d24c4310"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B26773F-2AA2-4186-A266-665DEBD79F00}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="be3c9163-79a1-42b6-a061-0833e6c3add8"/>
-    <ds:schemaRef ds:uri="4e51305d-5de6-45a6-8f4b-ddcbc1e897ba"/>
+    <ds:schemaRef ds:uri="18fba281-3140-4e33-b78f-87df0c1efb23"/>
+    <ds:schemaRef ds:uri="f7620e32-1325-4c29-861c-5840d24c4310"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -2262,12 +2201,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CF3C6A2-6542-4AA0-8AFE-941499A10862}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/backend/epic_app/tests/test_data/xlsx/nationalframeworkquestions.xlsx
+++ b/backend/epic_app/tests/test_data/xlsx/nationalframeworkquestions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deltares-my.sharepoint.com/personal/ana_nunezsanchez_deltares_nl/Documents/Documents/Floods and Droughts/EPIC Response Tool/Software/Excel Sheets/National Sector Frameworks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\EPIC-Tool\backend\epic_app\tests\test_data\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="8_{EE4BA733-F52C-4623-9CDA-4DF4D6CF6CA0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{BC237AEC-4DA5-462C-9104-FCCD57AE7D4A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3E0C7F-8875-4DC7-AA99-92BBA1C5FEF4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10545" yWindow="2325" windowWidth="16800" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nationalframeworkquestions" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="127">
   <si>
     <t>Does the Water Law require the preparation and describes the minimal content of basin management plans?</t>
   </si>
@@ -299,12 +299,6 @@
     <t>Flood Monitoring</t>
   </si>
   <si>
-    <t>Flood monitoring, forecasting, and warning is a complex multi-agency process that requires coordination and technical expertise. Figure 12.3 depicts the general relationship between the three key agencies for producing river and coastal flood forecasts and warnings.
-The “weather enterprise” as discussed in Chapter 5, consisting of the NMS working in collaboration with the private sector and regional and global weather centers, is the source of information for weather data and forecasts. This weather information is an essential input into flood forecasts. 
-For coastal flooding, the NMS typically combines weather forecasts and oceanographic information (including tides) with storm surge models to issue forecasts in the form of the storm tide height over normal sea level. Ideally, the coastal floodplains should be mapped, and the forecast can also provide information on how far inland the storm tide will extend and its potential impacts.
-For river flooding, the weather information needs to be combined with watershed hydrological and river hydraulic models to forecast river levels. Ideally, the floodplain will have been mapped and the forecast can include information on the extent and depth of the flooding, as well as potential impacts. Machine-based learning models that correlate weather and watershed conditions to river levels are also becoming more common as a supplement to traditional river flood forecasting methods (Noymanee and Theeramunkong 2019).</t>
-  </si>
-  <si>
     <t>Flood Emergency Preparedness, Response, and Relief</t>
   </si>
   <si>
@@ -438,9 +432,6 @@
   </si>
   <si>
     <t>Is flood emergency preparedness, response and relief governed by the DRM law?</t>
-  </si>
-  <si>
-    <t>Is flood forecasting/warning governed by the the meteorlogical law?</t>
   </si>
   <si>
     <t>Are budgetary laws and DRM laws in place that provide the legal and regulatory framework for disaster risk finance?</t>
@@ -1323,10 +1314,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1348,7 +1339,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1356,13 +1347,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1370,13 +1361,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1384,13 +1375,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1398,13 +1389,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1418,7 +1409,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1432,7 +1423,7 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1446,7 +1437,7 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1460,7 +1451,7 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1474,7 +1465,7 @@
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1488,7 +1479,7 @@
         <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
@@ -1502,7 +1493,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1514,7 +1505,7 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
@@ -1522,13 +1513,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1556,7 +1547,7 @@
         <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1570,7 +1561,7 @@
         <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1584,7 +1575,7 @@
         <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1598,7 +1589,7 @@
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1612,7 +1603,7 @@
         <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1626,7 +1617,7 @@
         <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1640,7 +1631,7 @@
         <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1654,7 +1645,7 @@
         <v>43</v>
       </c>
       <c r="D23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1668,7 +1659,7 @@
         <v>45</v>
       </c>
       <c r="D24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1682,7 +1673,7 @@
         <v>48</v>
       </c>
       <c r="D25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1696,7 +1687,7 @@
         <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1710,7 +1701,7 @@
         <v>52</v>
       </c>
       <c r="D27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1724,7 +1715,7 @@
         <v>55</v>
       </c>
       <c r="D28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1738,7 +1729,7 @@
         <v>57</v>
       </c>
       <c r="D29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1752,7 +1743,7 @@
         <v>60</v>
       </c>
       <c r="D30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1766,7 +1757,7 @@
         <v>62</v>
       </c>
       <c r="D31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1780,7 +1771,7 @@
         <v>64</v>
       </c>
       <c r="D32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1794,7 +1785,7 @@
         <v>67</v>
       </c>
       <c r="D33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1808,7 +1799,7 @@
         <v>69</v>
       </c>
       <c r="D34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1822,7 +1813,7 @@
         <v>71</v>
       </c>
       <c r="D35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1836,7 +1827,7 @@
         <v>73</v>
       </c>
       <c r="D36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1844,13 +1835,13 @@
         <v>74</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D37" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1858,55 +1849,41 @@
         <v>74</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D38" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D39" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D40" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D41" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1916,21 +1893,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004CF95EF2F384F0419312B394CBDE3AE2" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="31f6efdc87a01d4ba6154ecd9afe69b2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="18fba281-3140-4e33-b78f-87df0c1efb23" xmlns:ns4="f7620e32-1325-4c29-861c-5840d24c4310" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ef933d5bbd2bd3eb58c8ad997b164a29" ns3:_="" ns4:_="">
     <xsd:import namespace="18fba281-3140-4e33-b78f-87df0c1efb23"/>
@@ -2159,10 +2121,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CF3C6A2-6542-4AA0-8AFE-941499A10862}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B26773F-2AA2-4186-A266-665DEBD79F00}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="18fba281-3140-4e33-b78f-87df0c1efb23"/>
+    <ds:schemaRef ds:uri="f7620e32-1325-4c29-861c-5840d24c4310"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2185,20 +2173,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B26773F-2AA2-4186-A266-665DEBD79F00}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CF3C6A2-6542-4AA0-8AFE-941499A10862}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="18fba281-3140-4e33-b78f-87df0c1efb23"/>
-    <ds:schemaRef ds:uri="f7620e32-1325-4c29-861c-5840d24c4310"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/backend/epic_app/tests/test_data/xlsx/nationalframeworkquestions.xlsx
+++ b/backend/epic_app/tests/test_data/xlsx/nationalframeworkquestions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\EPIC-Tool\backend\epic_app\tests\test_data\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\EPIC-Tool\backend\epic_app\tests\test_data\xlsx\originals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3E0C7F-8875-4DC7-AA99-92BBA1C5FEF4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC33B60-DFE2-4159-9E0C-2D8DBE9090C3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10545" yWindow="2325" windowWidth="16800" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9900" yWindow="1800" windowWidth="21000" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nationalframeworkquestions" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="130">
   <si>
     <t>Does the Water Law require the preparation and describes the minimal content of basin management plans?</t>
   </si>
@@ -299,6 +299,12 @@
     <t>Flood Monitoring</t>
   </si>
   <si>
+    <t>Flood monitoring, forecasting, and warning is a complex multi-agency process that requires coordination and technical expertise. Figure 12.3 depicts the general relationship between the three key agencies for producing river and coastal flood forecasts and warnings.
+The “weather enterprise” as discussed in Chapter 5, consisting of the NMS working in collaboration with the private sector and regional and global weather centers, is the source of information for weather data and forecasts. This weather information is an essential input into flood forecasts. 
+For coastal flooding, the NMS typically combines weather forecasts and oceanographic information (including tides) with storm surge models to issue forecasts in the form of the storm tide height over normal sea level. Ideally, the coastal floodplains should be mapped, and the forecast can also provide information on how far inland the storm tide will extend and its potential impacts.
+For river flooding, the weather information needs to be combined with watershed hydrological and river hydraulic models to forecast river levels. Ideally, the floodplain will have been mapped and the forecast can include information on the extent and depth of the flooding, as well as potential impacts. Machine-based learning models that correlate weather and watershed conditions to river levels are also becoming more common as a supplement to traditional river flood forecasting methods (Noymanee and Theeramunkong 2019).</t>
+  </si>
+  <si>
     <t>Flood Emergency Preparedness, Response, and Relief</t>
   </si>
   <si>
@@ -434,6 +440,9 @@
     <t>Is flood emergency preparedness, response and relief governed by the DRM law?</t>
   </si>
   <si>
+    <t>Is flood forecasting/warning governed by the the meteorlogical law?</t>
+  </si>
+  <si>
     <t>Are budgetary laws and DRM laws in place that provide the legal and regulatory framework for disaster risk finance?</t>
   </si>
   <si>
@@ -462,6 +471,9 @@
   </si>
   <si>
     <t>Overarching Flood Risk Management Framework</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flood Forecasting and Warning </t>
   </si>
 </sst>
 </file>
@@ -1314,21 +1326,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:XFD37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" customWidth="1"/>
-    <col min="2" max="2" width="51.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="82.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="191.44140625" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" customWidth="1"/>
+    <col min="2" max="2" width="51.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="82.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="191.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1339,66 +1351,66 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1409,10 +1421,10 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1423,10 +1435,10 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1437,10 +1449,10 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1451,10 +1463,10 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1465,10 +1477,10 @@
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1479,10 +1491,10 @@
         <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="300" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1493,10 +1505,10 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1505,24 +1517,24 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1536,7 +1548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1547,10 +1559,10 @@
         <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1561,10 +1573,10 @@
         <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1575,10 +1587,10 @@
         <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -1589,10 +1601,10 @@
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -1603,10 +1615,10 @@
         <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -1617,10 +1629,10 @@
         <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -1631,10 +1643,10 @@
         <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -1645,10 +1657,10 @@
         <v>43</v>
       </c>
       <c r="D23" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -1659,10 +1671,10 @@
         <v>45</v>
       </c>
       <c r="D24" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -1673,10 +1685,10 @@
         <v>48</v>
       </c>
       <c r="D25" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -1687,10 +1699,10 @@
         <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -1701,10 +1713,10 @@
         <v>52</v>
       </c>
       <c r="D27" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -1715,10 +1727,10 @@
         <v>55</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -1729,10 +1741,10 @@
         <v>57</v>
       </c>
       <c r="D29" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -1743,10 +1755,10 @@
         <v>60</v>
       </c>
       <c r="D30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -1757,10 +1769,10 @@
         <v>62</v>
       </c>
       <c r="D31" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -1771,10 +1783,10 @@
         <v>64</v>
       </c>
       <c r="D32" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -1785,10 +1797,10 @@
         <v>67</v>
       </c>
       <c r="D33" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>65</v>
       </c>
@@ -1799,10 +1811,10 @@
         <v>69</v>
       </c>
       <c r="D34" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -1813,10 +1825,10 @@
         <v>71</v>
       </c>
       <c r="D35" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -1827,63 +1839,77 @@
         <v>73</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="D37" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="D38" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D38" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="C39" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B39" t="s">
+      <c r="D39" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="B40" t="s">
         <v>81</v>
       </c>
-      <c r="D39" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="C40" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="D40" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
         <v>83</v>
       </c>
-      <c r="D40" t="s">
-        <v>117</v>
+      <c r="C41" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/backend/epic_app/tests/test_data/xlsx/nationalframeworkquestions.xlsx
+++ b/backend/epic_app/tests/test_data/xlsx/nationalframeworkquestions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\EPIC-Tool\backend\epic_app\tests\test_data\xlsx\originals\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\EPIC-Tool\backend\epic_app\tests\test_data\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC33B60-DFE2-4159-9E0C-2D8DBE9090C3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14696CCD-ABA1-4887-B2B6-CC386FF66612}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9900" yWindow="1800" windowWidth="21000" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nationalframeworkquestions" sheetId="1" r:id="rId1"/>
@@ -28,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="130">
-  <si>
-    <t>Does the Water Law require the preparation and describes the minimal content of basin management plans?</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="190">
   <si>
     <t>Program areas</t>
   </si>
@@ -39,25 +36,7 @@
     <t>Programs</t>
   </si>
   <si>
-    <t>Program description</t>
-  </si>
-  <si>
     <t>National Sectoral Frameworks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The dominant paradigm for WRM is “integrated water resources management (IWRM)”. While there is no official definition of IWRM, a commonly used definition is that it is “a process which promotes the coordinated development and management of water, land and related resources in order to maximize economic and social welfare in an equitable manner without compromising the sustainability of vital ecosystems and the environment” (GWP 2000). Recognized at the international level more than 30 years ago at the 1992 Earth Summit in Rio de Janeiro, Target 6.5 of Sustainable Development Goal 6 on Clean Water and Sanitation calls for the implementation of IWRM at all levels by 2030. 
-The basic objective of WRM is the management of water as a natural resource, the use of which is fundamental to all socioeconomic activities, but which at the same time plays a vital ecological function that needs to be protected. As such, WRM seeks to allocate water among different user sectors (such as water supply, agriculture, industry, and power generation) and water users. It promotes the development of water resources while also seeking to prevent or minimize water pollution and to ensure appropriate water quality. It sets and enforces minimum or environmental flows to enable people to meet basic needs and to protect aquatic ecosystems and the livelihoods of those who depend on those ecosystems. Many of the programs identified in the upper part of the EPIC Response Framework fall under the general, but not necessarily exclusive, domain of the WRM framework, including river basin planning, water resources infrastructure, and adaptable water allocation. It follows that an effective national framework for hydro-climatic risk management system generally requires a functional and comprehensive national framework for WRM. </t>
-  </si>
-  <si>
-    <t>DRM is a broad topic that has seen significant evolution over recent years, encapsulated by the recent Sendai Framework for Disaster Risk Reduction 2015-2030. Among the four priorities of the Sendai Framework is Priority 2: “Strengthening disaster risk governance to manage disaster risk”. This priority notes “the vital role of disaster risk governance at the national, regional and global levels in terms of the management of disaster risk reduction and ensuring the coherence of national and local frameworks of laws, regulations and public policies that, by defining roles and responsibilities, guide, encourage and incentivize the public and private sectors to take action and address disaster risk.”   
-Floods and droughts are invariably included among the types of natural hazards that are subject to a disaster risk management (DRM) framework along with storms, earthquakes, volcanoes, and disease outbreaks, as well as anthropogenic hazards such as transportation and industrial accidents. It follows  that, as with WRM, an effective national framework for hydro-climatic risk management includes the need for an effective, functional, and comprehensive national DRM framework.</t>
-  </si>
-  <si>
-    <t>Drought risk management is a complex endeavor that requires both WRM and DRM perspectives, but also necessitates going beyond these traditional domains. International recognition of the importance of droughts was reflected in the 1994 United Nations Convention to Combat Desertification (UNCCD) which calls upon decision makers and water and land managers to take a proactive, coordinated, and holistic approach to drought risk management.   
-The modern conception of WRM includes both “blue” and “green” water. Blue water is mainly water stored in rivers, reservoirs, lakes, and accessible groundwater aquifers, and is available for uses such as hydropower, water supply, and irrigation. Green water refers to the water that originates from precipitation, is stored in unsaturated soil, and is absorbed and undergoes transpiration by plants or is evaporated directly from the soil. Green water plays an irreplaceable role in global ecosystems and food production, accounting for around 80 percent of global food production and exclusively sustaining grassland and forest ecosystems (Liu and Yang 2010).  
-WRM policies, institutions, and infrastructure have, however, historically evolved to manage primarily blue water. Drought not only affects traditional blue water uses, but also has a profound impact on green water, particularly as regards agriculture and natural resources management. These domains thus must also be explicitly incorporated into drought risk management systems. Healthy land provides natural storage for fresh water. If it is degraded, it cannot perform that function. Managing land better and massively scaling up land rehabilitation are essential for building drought resilience and water security. Land restoration is the cheapest and often the most effective solution to improving water storage, mitigating impacts of drought, and addressing biodiversity loss. 
-DRM evolved primarily in response to immediate and devastating natural shocks such as earthquakes, storms, floods, and landslides. Drought, in contrast, is generally a slow-moving natural disaster in which the extent of the impact only emerges over time, sometimes years, and the understanding of future impacts are limited by the accuracy of weather and climate forecasts and socioeconomic drivers. Some of the elements of a DRM framework, such as efforts to mitigate hazards and the activation of emergency support systems, can also naturally be applied to drought risk management.
-In summary, although WRM and DRM are intimately linked to drought management, it is generally necessary to develop a specific drought framework that incorporates the unique elements of drought monitoring, impact assessment, and risk characterization, in addition to providing the basis for drought agricultural response and recovery programs. In some poorer countries with large rural populations, WRM and DRM frameworks may not even exist or may be underdeveloped, and in such cases the burden of managing droughts may fall primarily on the agriculture agency and local governments.</t>
   </si>
   <si>
     <t>In many countries, the combination of WRM, DRM, and Hrydro-Met sector frameworks—if properly synchronized—should address most issues related to flood risk management. However, some more advanced countries have also found it useful to adopt additional flood management specific laws or national policies to help bind these sector frameworks more closely together. Some examples are provided below:
@@ -68,10 +47,6 @@
   </si>
   <si>
     <t>Local Government</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Local governments play pivotal roles in responding to flood and drought disasters (World Bank 2019). As highlighted in Chapter 12, local governments need to work in concert with national DRM agencies to respond to floods. They serve as one of many channels to warn about floods, to help evacuate residents, to ensure public safety, to provide relief to impacted people, and to help guide recovery efforts. Chapter 11 notes how local governments can work in concert with national agencies on drought issues; they can help disseminate information as the drought unfolds, implement emergency drought measures, administer drought assistance, and support social protection programs.
-Local governments also play important roles in flood and drought risk mitigation (Gencer 2017). Chapter 10 on floodplain management highlights their central role in land use planning, building regulations, and preparing local flood mitigation plans. They also oversee urban water supply and drought contingency plans, as highlighted in Chapter 5. Local governments invest in localized water resources infrastructure to mitigate flood and drought hazards, including stormwater drainage systems, local flood control projects, and water supply and sanitation systems (typically through their water utilities). The capacity and authority of local governments to contribute to hydro-climatic risk management varies considerably among, and sometimes within, countries. A 2017 survey examined the authority, capacity, and responsibilities of 151 cities around the world with respect to disaster risk reduction. </t>
   </si>
   <si>
     <t>Public Participation &amp; Stakeholder Engagement</t>
@@ -127,34 +102,15 @@
     <t>Integrated River Basin Planning</t>
   </si>
   <si>
-    <t xml:space="preserve">River basin plans guide the development, management, allocation, and use of water and related resources within a specific geographical area. Ideally, this is an actual river basin, but in some cases the planning area may be limited due to transboundary constraints or in order to ensure a more tractable planning size. In some countries, a single river basin is simply too large to plan as a single unit, so it is necessary to divide it into sub-basins. River basin plans are typically integrated plans, addressing water quantity, water quality, surface water and groundwater, and the protection of water and aquatic ecosystems while enabling the integration of upstream and downstream interests. Basin plans should also include issues such as institutional responsibilities, implementation arrangements, budgets, and monitoring. </t>
-  </si>
-  <si>
     <t>Coastal Zone Management Planning</t>
   </si>
   <si>
-    <t xml:space="preserve">More than 600 million people, around 10 percent of the global population, live in coastal areas that are less than 10 meters above sea level (UN 2017). These areas are particularly vulnerable to flooding from storms and the associated storm surges that drive seawater onto coastal flood plains. Coastal zones can also be vulnerable to water shortages and droughts with the additional risk of saline intrusion (and therefore contaminated groundwater) as a result of groundwater over-abstraction. Climate change also directly impacts coastal communities due to rising sea levels and increasing storm frequencies and magnitudes in many areas. 
-The most comprehensive paradigm for coastal zone management is Integrated Coastal Zone Management (ICZM), a multi-sectoral, stakeholder-informed coastal zone equivalent of river basin planning, which seeks to promote economic development in the coastal zone while also protecting valuable coastal ecosystems. These ecosystems are often important for tourism and fisheries, and act as coastal barriers against storm surges. Unlike river basin planning, ICZM has not been fully mainstreamed into most countries’ planning processes, probably reflecting the complexity of the exercise. 
-Particularly in countries or coastal areas with extensive deltas, coastal zone planning must of necessity be linked to river basin management planning. That is because the delta represents the terminus of a river basin, where freshwater flows mix with seawater and bring sediments, nutrients, and pollutants that have a profound impact on coastal ecosystems. ICZM is also fundamentally intertwined with marine spatial planning by virtue of common geomorphological dynamics and the ecosystems providing services (such as flood protection) and goods to coastal economies.
-Coastal zone management plans provide the overall framework for flood management programs operating in coastal areas and should help inform local flood management plans for jurisdictions located along the coastline. They also help in establishing priorities for investments related to coastal barrier management, including protection and restoration activities, and the prioritization of areas where “hard” coastal defenses such as sea dikes or flood walls may be necessary. </t>
-  </si>
-  <si>
     <t>Urban Water Supply Planning</t>
   </si>
   <si>
-    <t>Urban water supply and sanitation utilities (hereafter “water utilities”) typically prepare master plans to define system-wide strategies and guide capital improvement projects to cope with population growth, regulatory requirements, and infrastructure renewal needs. In order to ensure that current, medium- and long-term water needs can be met, such master plans usually also include what are described in this report as an Urban Water Supply Plan (UWSP) that helps to mitigate drought risks by identifying potential supply-side and demand-side options. Potential supply-side options may include the construction of infrastructure in the form of new reservoirs, long-distance conveyance structures, water reclamation and desalination plants, development of new groundwater wellfields, and the purchase of water from bulk suppliers. Potential demand-side options may include reducing physical losses, promoting water conservation, and adjusting water pricing. Water quality may also be factored into a water supply plan, as poor raw water quality can potentially reduce the availability of potable water.</t>
-  </si>
-  <si>
     <t>Irrigation Water Supply Planning</t>
   </si>
   <si>
-    <t>Irrigation service providers are usually the largest users of water in a river basin and are accordingly also key stakeholders in river basin management planning. The notion of the irrigation service provider encompasses a range of different actors depending on the national context and may include an irrigation department in a ministry (such as the agriculture ministry or even the WRM ministry), a separate irrigation ministry, a semi-autonomous national or regional public irrigation agency, or farmer-managed water user organizations (variously described as “irrigation districts”, “water communities”, or “water user associations”), which may have their own direct access to water sources or which may in turn be supplied in bulk by public irrigation service providers. 
-Because of the volumes of water involved, irrigation service providers are generally required to demonstrate more flexibility in their water allocations than are other uses such as water utilities or hydropower operators, and thus play a critical role in basin drought contingency plans. At the same time, though, reduced irrigation water availability may reduce crop production (and therefore influence food prices and food security) and adversely affect rural livelihoods. 
-In order to ensure sustainable and long-term operation, best practice suggests that irrigation service providers should periodically prepare irrigation scheme master plans that cover all aspects of their service, including asset management and capital planning. Ideally too, and depending on the socioeconomic context, an irrigation service provider should prepare an Irrigation Water Supply Plan (IWSP) that looks at long-term resource planning to ensure that adequate water is available to meet farmers’ existing and future uses, particularly considering changing cropping patterns and climate change. This involves balancing water supply and demand alternatives, while also considering water quality, to ensure long-term sustainability. 
-There are typically several critical elements in an IWSP. It should include seasonal and monthly water budgets based on quantifying all inflow and outflow components for the service area, such as: crop water use, non-beneficial evaporation, groundwater seepage, and return flows. The IWSP should present water management objectives based on the water budget as a guide to improve system efficiency or meet other objectives. This should include a program of actions to help meet these objectives, including various water conservation approaches. In many schemes there is a need to first improve flow measurement and water control within the canal network through a modernization program. 
-It is also important to ensure that irrigation service providers prepare a Drought Plan describing actions for drought preparedness as well as allocations of water supply during drought conditions. Unlike urban WSCPs, the IWSP Drought Plan may not need to be a stand-alone document as irrigation service providers generally have more flexibility during drought periods than urban water utilities which are required to maintain minimum service levels to protect public health.</t>
-  </si>
-  <si>
     <t>Local Flood Risk Mitigation Planning</t>
   </si>
   <si>
@@ -164,177 +120,67 @@
     <t>Agriculture Policies and Climate Smart Agriculture</t>
   </si>
   <si>
-    <t>Agricultural Economic Policies:  Agricultural economic policies can have a significant impact on land use, sometimes motivating farmers to grow inappropriate crops and utilize excessive amounts of water. To ensure food security and in conjunction with the Green Revolution starting in the 1960s, many governments adopted subsidy programs to promote the production of key staple crops (such as rice, wheat, and maize), support poor farmers, and keep food prices low. This helped to both combat rural poverty and ensure food security. These subsidies took the forms of below-cost irrigation water, subsidized inputs such as fertilizers and pesticides, and crop price support programs. Although in many countries these policies did in fact increase the supply of cheap food and address food security concerns, they also contributed to land degradation and water use inefficiency (Pingali 2012).
-Adjusting these agricultural policies to ensure the availability of nutritious food for the poor while reducing the environmental impacts of agriculture is the paramount agriculture policy imperative for the 21st century. It will not be politically easy, as many vested interests have emerged around existing subsidy regimes and governments are understandably wary about tampering with policies that may affect the production of food staples. Yet a Green Revolution 2.0 (GR2.0) is needed—and is emerging—to meet the world’s food demands, ensure environmental sustainability, and meet the challenges of climate change. 
-By 2050, the global population is projected to increase by about one-third, which will require a 70 percent increase in food production. GR 2.0 needs to not only increase basic cereal productivity (for example, wheat, rice, and corn) to meet the demand for staples, but also to make more land available for higher value and more nutritious crops, such as fruits, vegetables, and legumes. In addition, it should allow for the movement of labor out of agriculture when other economic opportunities provide greater returns. GR 2.0 must also improve the tolerance of crops to stresses, both climatic and biotic (pest and disease). Improved varieties that are tolerant to drought or excess water would enhance smallholder productivity in marginal environments and provide tools to adapt to climate change (Pingali 2012).
-Agriculture agencies, working in collaboration with farmers and agribusiness, need to show leadership in this transition to a GR 2.0. They can adjust agricultural policies to focus on improving productivity, gradually reducing subsidies that distort incentives for sustainable land management, and fund programs that support climate-smart agriculture. Governments can also work with the private sector and farmers to promote the use of new technologies, such as a greater focus on precision agriculture, the internet of things (IoT) and the use of big data—sometimes referred to as “agriculture 4.0” (De Clercq and others 2018). 
-Climate-Smart Agriculture Programs: Agricultural water and soil conservation programs have historically been a focus area for mitigating drought hazards. As an example, the U.S. Soil Conservation Service was created in response to the great Dust Bowl in the American prairies in the 1930s. In response to climate change, the approach has been broadened to include climate-smart agriculture (CSA). CSA aims to improve agricultural and livestock productivity while delivering greater resilience to climate change and lowering greenhouse gas emissions.</t>
-  </si>
-  <si>
     <t>Forest Management</t>
   </si>
   <si>
-    <t xml:space="preserve">The natural resources agency has several different options for managing forests on public lands depending on the specific context. Although this is a vast and complex topic, table 7.2 below presents four general management approaches for illustrative purposes.  These approaches are not mutually exclusive. For example, within the same forest areas, the natural resources agency may reserve some land for conservation, ensure sustainable forestry in public and private lands, and enter into arrangements with local communities including indigenous groups. </t>
-  </si>
-  <si>
     <t>Wetlands Management</t>
   </si>
   <si>
-    <t>There are a variety of approaches to wetlands management which are summarized below in table 7.4. As with forest management, these approaches are not mutually exclusive. National wetlands management programs might be linked to global efforts, particularly the Ramsar Convention, which currently has 171 Contracting Parties. The Ramsar Convention’s mission is “the conservation and wise use of all wetlands through local and national actions and international cooperation, as a contribution towards achieving sustainable development throughout the world.” National programs might benefit from the resources and analytical work provided with the Ramsar bodies (in particular from the Scientific and Technical Review Panel). They also can contribute to global monitoring efforts such as the Global Wetland Outlook.</t>
-  </si>
-  <si>
-    <t>Local Watershed Management Organizations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">These organizations can help provide a critical link between national agencies and local communities. This linkage is important because national agencies may have substantial financial resources and technical expertise, but communities often have a better sense of local priorities and are responsible for undertaking many of the actions supported by various natural resources management and agricultural programs. 
-In practice, WaMOs can follow hydrological or political boundaries and take on a variety of different forms and geographical coverage. In some cases, they may be legally constituted organizations that operate independently of the government. In other cases, the local government may have a specialized unit that helps organize and represent the community in its interactions with national agencies. An important consideration is that a WaMO needs to be able to take a broad landscape perspective within its area of jurisdiction and to understand how that area is nested into a larger watershed perspective. Agriculture and natural resources agencies should support and nurture WaMOs for a variety of reasons. WaMOs serve as an ideal conduit for public outreach and communication programs. WaMOs can also serve as a channel for implementing programs, either through block grants to WaMOs or helping to link potential beneficiaries with specific agency programs. WaMOs can also help national agencies better address social inclusion issues by providing linkages with marginalized groups such as indigenous groups, women, and landless populations. National agency support for WaMOs can take many forms, including helping in their legal establishment, funding, and providing technical assistance and training. </t>
-  </si>
-  <si>
-    <t>Watershed Planning</t>
-  </si>
-  <si>
-    <t>Local WaMOs working in partnership with natural resources and agriculture agencies can help address issues on a relatively small scale. It is important also to have a periodic (for example every five years) planning or assessment exercise that looks at the entire watershed and identifies key problems, objectives, and high priority activities. A watershed management plan provides an opportunity for the agriculture, natural resources, and WRM agencies to examine the effectiveness of their various programs to promote healthy watersheds and adjust where necessary. It also gives local WaMOs an opportunity to better understand how their jurisdictions are affected by and contribute to larger watershed dynamics. 
-Information from watershed monitoring is an important input for watershed management plans. This should be focused on aspects such as the ecological conditions and trends of key natural assets (such as strategic wetlands, forests, soil erosion, water quality and quantity, and floods and droughts), helping establish cause-and-effect relationships between natural assets and ecosystem services, and informing and updating the implementation and effectiveness of specialized programs. A strong and continuous watershed monitoring program can provide a structured framework for adaptive watershed management by associating indicator thresholds with management activities (Shames and others 2017). 
-Watershed planning should be done in a collaborative process with all relevant agencies, and in a participatory manner with a wide range of stakeholders including the local WaMOs. The watershed management plan should feed into the river basin plan and vice versa. This collaborative arrangement between the various agencies is a classic example of the type of joined-up government approach required to address hydro-climatic risk management.</t>
-  </si>
-  <si>
     <t>Water Resources Infrastructure</t>
   </si>
   <si>
     <t>Water Resources Investment Policy</t>
   </si>
   <si>
-    <t>There is a clear need to increase funding for upgrading and constructing new water resources infrastructure, particularly to address the increasing hazards associated with climate change (HLPW 2018). WRI generates a mix of public and private benefits, yet it is generally funded by the government. Since public budgets are constrained, policies should be adopted which promote the efficient use of these funds. Investment efficiency is also important from an equity perspective because in many cases the costs (in terms of high levels of public subsidies) for WRI are borne by all taxpayers while the benefits go only to a much smaller group. Finally, national WRM agencies that depend entirely on a general budget and operate in a non-commercial manner may potentially be driven by political motivations, rent seeking, or local elite capture that distorts the decision-making process (Molle 2008).
-Ideally, WRI investment decisions should be guided by sophisticated economic and environmental analysis to determine whether a proposal is justified from a broad economic perspective; this also helps to ensure a reasonable project size and cost. An economic analysis is used to determine whether a proposed project will be a worthwhile investment. It would account for all benefits and costs regardless of who is affected. An economic analysis allows for fair comparisons to be made between alternatives and demonstrates why a proposed project can be considered the best solution to meet the overall objectives. More sophisticated economic analysis can consider environmental and social costs and benefits and thus provides a useful tool, along with the technical, financial, environmental, and social assessments, to appraise a project. It is particularly important to consider the co-benefits of associated green infrastructure when analyzing a project proposal (Browder and others 2019). Ideally, economic analysis should be integrated into a broader environmental and social impact assessment (ESIA) that can be used as the government’s primary decision-making document. 
-Although WRI is typically financed by the government, there are opportunities to recover some costs by charging water users, for example by selling bulk water supply to water utilities and irrigation schemes or by generating power from multi-purpose dams. Methods for allocating costs for multi-purpose reservoirs and water conveyance systems have been developed, allowing for more equitable cost recovery policies from water users (OCDE 2017).
-In many cases, the national government will help fund local flood control projects or the development of new water sources such as reservoirs or groundwater well fields. When funds are offered on a 100 percent grant basis there is a tendency for local governments to overbuild and undermaintain the WRI. Thus, adopting reasonable cost-sharing policies will encourage local governments to make better economic decisions, since the use of their scarce funds is also at stake. Attaching conditions to national funding of local WRI can also be used to incentivize local governments to adopt better and lower-cost management practices, for example by promoting the use of non-structural approaches for flood management or water conservation.</t>
-  </si>
-  <si>
     <t>Dam Safety</t>
   </si>
   <si>
-    <t xml:space="preserve">Dams comprise critical infrastructure to meet increasing demands for water, food, energy, and flood control. The failure of a dam can potentially have catastrophic impacts in terms of downstream flooding, as well as by removing an asset that communities are reliant upon to reduce flood hazards and to supply water. The two most common causes of dam failure are “overtopping” of earth dams, and foundation problems that are sometimes triggered by earthquakes. The proximate causes of dam failures, however, are often complex and myriad, and could include factors such as inappropriate design standards, bad siting decisions, poor construction, inadequate monitoring and maintenance, poor operational decisions, and lack of emergency planning. Dam safety programs are intended to address these shortcomings by ensuring a comprehensive life cycle approach.
-Dams are typically owned and operated by a wide variety of organizations. WRM agencies may themselves operate dams for multi-purpose use such as flood control, water supply, hydropower, and recreation. Energy agencies or companies may operate dams primarily for hydropower but may also include other uses. Agriculture agencies, and individual irrigation surface providers, often rely upon dams to provide water supply for irrigation systems. Water utilities often own and operate their own reservoirs to meet their water supply needs. Many of these dams are typically either constructed from soil or concrete, with a wide variation in dam and associated reservoir size. Ensuring that all these dams are regulated under an appropriate national dam safety management program is an indispensable element of hydro-climatic risk management.
-The core principle of dam safety management is the notion of shared responsibility. The owner is responsible for ensuring the safety of a dam, for operating and maintaining it in a safe condition, and for ultimately assuming criminal and civil liability in the event of a failure. The dam safety regulator is responsible for protecting the safety of the public by establishing dam safety standards and ensuring that these are fully implemented. </t>
-  </si>
-  <si>
     <t>Flood Infrastructure Safety</t>
   </si>
   <si>
-    <t xml:space="preserve">River and coastal flood control infrastructure provide many of the same functions as dams—essentially holding water back—and faces many of the same risks. Flood control embankments can include levees that protect land that is normally dry but that may be occasionally flooded, and dikes that protect land that would naturally be underwater most of the time. Tidal gates are important for coastal flood control and can help protect against storm surges. Large pump stations that help evacuate flood waters are critical elements of many flood control systems.
-Flood embankments are typically constructed from soil and are sometimes armored with concrete. They are prone to collapse when overtopped and they can suffer foundation failures like dams do. Flood walls are constructed from concrete, and in some cases steel, and may also fail from overtopping or foundation failures. Flood embankments may also be integrated into transport infrastructure, with roads or railway lines situated on top of the embankments. In some cases, specific sections of flood embankments may be designed to be easily breached (these are called fuse plugs). When flood levels in a river are dangerously high, the fuse plugs allow water to be channeled into areas that pose the lowest risk, such as agricultural areas with minimal numbers of structures. Although a flood control infrastructure failure is generally not as immediately catastrophic as a dam failure, it can have a significant impact over a large geographical region as river or coastal flood waters pour into low-lying areas. As an example, the devastating floods in New Orleans during Hurricane Katrina in 2005 were caused primarily by the failure of levees (ASCE 2017).
-Like dams, flood control infrastructure is often owned or operated by multiple entities. Larger infrastructure is typically constructed by the WRM agency, which may keep control of operations or maintenance or turn them over to local governments. In some cases, local governments or private industries, such as industrial estates, may construct their own flood control infrastructure. However, a basic challenge for flood safety can be identifying precisely who owns the infrastructure or sections of flood embankments and who is therefore responsible for maintaining them and ensuring their integrity. This is because many flood embankments have been built up and extended over decades or even over centuries. Consequently, few were originally designed or constructed to modern standards. In addition, records of their construction and historical performance may not exist. Moreover, they may stand for much of their lives without being loaded to design capacity, which can create a false sense of security in the level of protection they will provide.
-Flood infrastructure is typically composed of long linear structures that are only as strong as their weakest links. The structures can suffer from several potential deficiencies, such as old age, poor construction, and inadequate maintenance. They can also experience damage from burrowing animals and human activity, such as illegal construction on or adjacent to flood control infrastructures, illegal sand exploitation and storage of building materials, and overloaded vehicles travelling on embankments. They also are typically subject to encroachments by third-party objects that are constructed or installed over, under, or through the structures. Those encroachments can adversely affect flood control infrastructure integrity, but are not always fully recorded or documented. </t>
-  </si>
-  <si>
     <t>Water Allocation and Groundwater Management</t>
   </si>
   <si>
     <t>Flexible Water Allocation</t>
   </si>
   <si>
-    <t>WRM agencies should manage water allocations to ensure that water is not overallocated and that there is enough slack in the system to help mitigate drought impacts. This includes having a formal system of adaptable water allocations whereby water can be transferred from lower value users to higher value users, for example through administrative decisions, negotiated settlements, or water markets.</t>
-  </si>
-  <si>
     <t>Conjunctive Groundwater Management</t>
   </si>
   <si>
-    <t>This program involves balancing surface water and groundwater use, including managed groundwater recharge where possible, and ensuring that groundwater is available as a strategic reserve to help meet demand during droughts. Where groundwater aquifers exist, they provide an ideal water storage option. Too often, however, aquifers are overexploited resulting in unsustainable yields thus diminishing their effectiveness as strategic sources of water during droughts.</t>
-  </si>
-  <si>
     <t>Floodplain Management</t>
   </si>
   <si>
     <t>Floodplain Mapping</t>
   </si>
   <si>
-    <t>To properly manage river and coastal floodplains, the hazards should be well understood and communicated to local governments and the public. This is an enormously complex and continuous process that the DRM or WRM agency typically manages due to the technical challenges involved. It cannot be done quickly and needs to be constantly updated as flood hazards change over time due to climate change, watershed development, and new water resources infrastructure.</t>
-  </si>
-  <si>
     <t>Floodplain Regulation</t>
   </si>
   <si>
-    <t xml:space="preserve">Floodplain regulation helps to reduce exposure and vulnerability of people and assets and has two dimensions: (1) a permitting process to authorize development and activities; and (2) standards and codes to reduce the vulnerability of buildings and facilities. Land use management is generally a local government responsibility, and local governments should have their own specific floodplain management units. Some countries have even created multi-jurisdictional floodplain authorities to manage entire river or coastal stretches. The DRM agency has an important role to play in helping local governments by defining permitting guidelines and developing uniform standards. In some cases, the DRM agency may be legally mandated to oversee the implementation of local government floodplain regulations. </t>
-  </si>
-  <si>
     <t>Local Flood Mitigation Planning</t>
   </si>
   <si>
-    <t>River basin and coastal management planning are the tools generally used to reduce overall flood hazards at the regional level with a focus on watershed health and large-scale water resources infrastructure. Local flood mitigation planning plays an important complementary role to basin planning, and may often be part of a broader multi-hazard local government mitigation plan that includes other potential threats, such as earthquakes, landslides, and fires. Local flood mitigation plans go beyond regulation to proactively manage risks by identifying priority actions, such as refining land use plans and regulations, identifying infrastructure projects, conserving and restoring natural systems, and implementing educational and awareness programs. The DRM agency has an important role in providing guidelines and technical assistance to local governments in the formulation of flood mitigation plans. In some cases, the DRM agency may be legally mandated to oversee local government flood mitigation plans.</t>
-  </si>
-  <si>
-    <t>Drought Monitoring</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Drought Monitoring Program</t>
   </si>
   <si>
-    <t xml:space="preserve">A comprehensive Drought Monitoring Program (DMP) encompasses two interrelated activities: (1) the monitoring and forecasting of meteorological and hydrological conditions; and (2) the assessment of actual and potential on-the-ground drought impacts and risks. The DMP should classify and report on the level of drought for specific regions of the country. The designations often range from 1 to 5, from a low level (1) of “abnormally dry” to the highest level (5) of “an exceptional drought”. The designation of a drought level is important because it should help communicate the relative severity of the drought to different parts of the country and trigger actions identified in the National Drought Plan.
-A drought monitoring program identifies climate and water supply trends and detects the emergence or probability of occurrence of droughts, usually by categorizing severity through a percentile ranking approach, and the likely impacts associated with each category. The information can be used to communicate broadly to the general public, as well as to inform specific regional, local, and sector-specific drought management plans and actions. This information can be used to trigger drought mitigation and response measures, as well as disaster declarations and eligibility for drought-related programs, such as disaster relief, insurance, and eligibility for low-interest loans. It can also be used to help inform food relief efforts, water tanker truck deliveries, and other policy and management responses. </t>
-  </si>
-  <si>
     <t xml:space="preserve"> WRM Drought Response</t>
   </si>
   <si>
-    <t xml:space="preserve">During droughts, water use needs to be coordinated at the basin level to ensure water allocations are in alignment with the overall basin drought contingency plan. As highlighted in Chapter 9, the WRM agency should ideally administer a water use permit system that has clear rules of priority during periods of water shortage or drought. Ideally, this permit system would be flexible enough to accommodate priority and equitable use of water during droughts, either through administrative decisions by the WRM agency—preferably within the context of deliberations within the Drought Committee—or through a water rights trading system. The role of conjunctive groundwater management was also highlighted in Chapter 9, underscoring the need to facilitate the storage of water in aquifers during non-drought periods and then abstracting groundwater for use during droughts. The challenge is to ensure that the sustainable yield of an aquifer is not exceeded over the long run.
-The WRM agency often, but not always, serves as the anchor agency for the Drought Committee. In regions where cities, industries, and farms rely heavily on surface water or groundwater, particularly when delivered through regional water conveyance systems, the WRM agency has a critical role to play in drought response. As a core member of the Drought Committee, it should monitor and report on the implementation of the various drought management measures, as well as the overall water balance at the river basin level. The WRM agency also has a central role to play in drought communication and public outreach during droughts, reaching out through its various channels to create a culture of water conservation and water use efficiency. The WRM agency can build upon emergency water conservation activities during droughts to help promote the necessary policy, legal, and institutional reforms to further the agenda of water stewardship. </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Agriculture Drought Response</t>
   </si>
   <si>
-    <t xml:space="preserve">Agriculture, including both crop and livestock production, is an inherently risky endeavor and subject to many types of natural hazards, such as droughts, floods, pestilence, fires, tornadoes, and hail. Agriculture is also confronted with many market risks, such as price fluctuations, logistical interruptions, and sudden export restrictions. Therefore, it is important that the agriculture agency develop a sector-wide agriculture risk management program that considers all risks in a holistic manner to help farmer and livestock producers cope with this broad range of uncertainties (World Bank 2016).
-As highlighted in Chapter 6, climate-smart agriculture programs can help mitigate potential drought impacts by promoting improved agronomic practices. When a severe drought does strike, however, agricultural disaster support programs can be powerful tools to protect the livelihoods of agriculturalists. Such programs can also help de-risk the agricultural sector and contribute to increasing agricultural output through improved access to credit and encouraging agricultural investments. 
-Agricultural disaster support is generally organized around two approaches: (1) direct government-administered relief; and (2) relief administered through agricultural insurance. Direct relief programs provide financial support, such as payments or concessional loans, to agriculturalists who suffer damages due to natural hazards. Natural hazard insurance programs, on the other hand, are typically established, regulated, and subsidized through the agriculture agency, which works through insurance companies that offer plans to agriculturalists. Specialized direct relief or insurance programs are required to deal with different types of producers, for example different programs may be required for annual crops, perennial crops such as orchards or plantations, and livestock. 
-Depending on the specific country context, there may be a mix of direct relief programs and insurance programs. </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Social Protection Drought Response</t>
   </si>
   <si>
-    <t xml:space="preserve">Dedicated agricultural disaster support programs may function well in middle-income countries where the agriculture sector is commercialized, and where agriculturalists have the capacity to apply for assistance. In many developing countries, however, farming and livestock production is managed in a more informal and often subsistence level, and different approaches focused on social protection are required to help rural households respond and recover from droughts (and from floods, for which social protection programs are discussed in Chapter 12). Even with commercialized agriculture, agricultural disaster support programs may not be enough to meet the needs of the impacted population. For example, people employed on farms or who operate as sharecroppers may lose their jobs due to droughts. In addition to their economic impacts, droughts in rural communities may also have deep and long-lasting social impacts related to malnutrition and lack of access to water and sanitation. They can have a profound short-term impact on health as well as longer term impacts such as childhood stunting or lack of access to schooling.
-For these reasons, countries should have preconceived programs for ensuring food and water security in rural areas impacted by natural disasters. Social protection programs that help facilitate effective drought responses in rural areas include offering traditional safety nets and, in extreme conditions, humanitarian aid. </t>
-  </si>
-  <si>
-    <t>Flood Monitoring</t>
-  </si>
-  <si>
-    <t>Flood monitoring, forecasting, and warning is a complex multi-agency process that requires coordination and technical expertise. Figure 12.3 depicts the general relationship between the three key agencies for producing river and coastal flood forecasts and warnings.
-The “weather enterprise” as discussed in Chapter 5, consisting of the NMS working in collaboration with the private sector and regional and global weather centers, is the source of information for weather data and forecasts. This weather information is an essential input into flood forecasts. 
-For coastal flooding, the NMS typically combines weather forecasts and oceanographic information (including tides) with storm surge models to issue forecasts in the form of the storm tide height over normal sea level. Ideally, the coastal floodplains should be mapped, and the forecast can also provide information on how far inland the storm tide will extend and its potential impacts.
-For river flooding, the weather information needs to be combined with watershed hydrological and river hydraulic models to forecast river levels. Ideally, the floodplain will have been mapped and the forecast can include information on the extent and depth of the flooding, as well as potential impacts. Machine-based learning models that correlate weather and watershed conditions to river levels are also becoming more common as a supplement to traditional river flood forecasting methods (Noymanee and Theeramunkong 2019).</t>
-  </si>
-  <si>
     <t>Flood Emergency Preparedness, Response, and Relief</t>
   </si>
   <si>
-    <t>Emergency preparedness and response for floods should take place at many levels: national, regional, local, private sector, and households. The National DRM Plan should include a specific component on disaster response that establishes a standard Emergency Management System (EMS) that allows for multi-agency and multi-jurisdictional responses to emergencies. Some key elements include (1) definition of command structure; (2) regional EOCs; (3) emergency warning dissemination system; (4) master civil defense mutual aid agreements; and (5) multi-agency coordination processes. 
-Although this system is set up to manage all types of emergencies, such as earthquakes, fires, storms, and floods, there also needs to be flood-specific emergency preparedness plans and response actions. The EMS serves to coordinate the actions of the key actors, including relevant national agencies and local governments, and emergency responders such as police, fire, and the military as necessary. The EMS should include provisions as necessary for mobilizing the national level Disaster Management Committee which often consists of Cabinet-level officials and may be chaired by the Executive. 
-For river flooding, the WRM agency should prepare a River Basin Flood Contingency Plan as discussed in Chapter 6, which looks at different flood scenarios and operational responses. The WRM agency should also have a Flood Control Center which serves as the focal point for flood monitoring, forecasting, and operations, working in close collaboration with the DRM agency. In partnership with the DRM agency, the WRM agency also has an important role to play in flood preparedness. Raising awareness about flood risk and emergency response with local governments, businesses, and the private sector is an important preparedness activity. The WRM agency can also provide flood fighting training for its staff, other agencies, and local governments. Finally, the WRM agency should periodically coordinate with the DRM agency and local governments to prepare for local flood and emergency risk management and response.
-Local governments are generally the first responders in a flood emergency, with national assets being deployed as needed—and sometimes with delay. Paralleling the process at the national level, local governments should have Multi-Hazard Mitigation Plans as discussed in Chapter 10 that include floods and should also have Local Emergency Response Plans. To the extent that either river or coastal storms and floods are an issue for the local government, there may be specific Flood Emergency Plans. The local Emergency and Flood Response Plans typically include elements such as: (1) the emergency management organization structure; (2) policies, responsibilities, and procedures to respond to floods; and (3) approaches for after-flood analyses and follow-on activities. Floodplain mapping provides critical information on the potential extent and impacts of floods which can help inform the Emergency Response Plan and flood response actions.</t>
-  </si>
-  <si>
     <t>Flood Disaster Recovery</t>
   </si>
   <si>
-    <t xml:space="preserve">The PDNA should help identify flood impacts and scope out the recovery process, including needs for: (1) housing; (2) restoring public infrastructure and public facilities; (3) restoring business and other organizational assets; and (4) restoring livelihoods. As highlighted in the previous section on flood relief, the PDNA should also identify initiatives to assist impacted people while they are waiting for recovery support. 
-Disaster recovery programs should have dedicated components to meet different needs. For households, support can be provided to repair, replace, or relocate housing. For local governments, support can be provided for emergency works, such as debris removal or flood protection measures, or more permanent works such as roads, water infrastructure, public buildings, and other public utilities. Recovery support can also be provided to businesses and other organizations such as centers of worship or community centers. Finally, recovery support can be provided for flood hazard mitigation projects such as new structural or nature-based projects. 
-Disaster recovery support can be provided in the form of grants, concessional loans, or through subsidized insurance programs. Typically, eligibility for disaster recovery support (except for insurance) is contingent upon a Disaster Declaration, often issued by the Executive. 
-It is important to note that these disaster recovery programs, usually administered or overseen by the DRM agency, can be employed to address a wide variety of potential disasters, for example storms, earthquakes, and fires, as well as floods. However, since the core principle in any disaster recovery effort is to “build back better”, it is important that the programs be tailored to help mitigate the hazard that caused the disaster. For example, if an earthquake resulted in significant destruction of buildings, the DRM agency should ensure adequate buildings regulations in terms of seismic design and require that the buildings regulations are utilized in the reconstruction process. 
-For floods, the disaster recovery programs should consider the principles of floodplain management outlined in Chapter 10 and centered on the PARA concept: protect, avoid, retreat, or accommodate. If these principles are not employed, then the government is potentially creating a moral hazard: people and businesses may not take preventative steps to reduce flood risks on the expectation that future losses will be reimbursed through disaster recovery programs. </t>
-  </si>
-  <si>
     <t>Disaster Risk Financing</t>
   </si>
   <si>
     <t>Disaster Risk Financing Instruments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extreme hydro-climatic events can cause significant financial and economic shocks to households, the private sector, and government budgets. Floods and droughts therefore form a contingent liability for governments since they cause unexpected expenditures and loss of fiscal revenues. Having access to adequate and timely financial resources for response and recovery reduces the impact of these shocks and helps the economy bounce back quickly. A lack of such resources causes a delay in the provision of life-saving responses and pushes back the reconstruction of critical public and private structures, facilities, and infrastructure, which brings higher long-term impacts of a disaster and a more significant effect on poverty and development.
-There are a variety of risk financing instruments, each with specific characteristics that make each type well-suited to address certain situations but less effective in others. The optimal mix of instruments depends on the overall fiscal situation of the country as well as its disaster risk profile. </t>
-  </si>
-  <si>
-    <t>Disaster Risk Financing National Sector Framework</t>
   </si>
   <si>
     <t>Two sets of laws provide the foundation for the legal and regulatory framework for disaster risk finance: budgetary laws and DRM laws. The budgetary law should explicitly authorize the finance agency to develop and implement a disaster risk financing strategy. Another important element concerns the process by which the is budget allocated, and level of discretionary funding by national agencies or local governments to accommodate the needs during the response, relief, and recovery phases. The budget law should also include a provision for a national disaster fund, including guidelines for the size of the fund, and its utilization. Of importance are the emergency procurement procedures that may need to be employed to rapidly respond to disaster needs.
@@ -344,108 +190,12 @@
     <t>Question</t>
   </si>
   <si>
-    <t>Is there a national strategic water resources management plan in place?</t>
-  </si>
-  <si>
-    <t>Is there a national strategic disater risk management plan in place?</t>
-  </si>
-  <si>
-    <t>Is there a national strategic drought risk management plan in place?</t>
-  </si>
-  <si>
-    <t>Do the national strategic water resources management plan and the national disaster risk management plan consider flood risk management aspects?</t>
-  </si>
-  <si>
-    <t>Are local governments in place to plan, excecute, monitor and evaluate?</t>
-  </si>
-  <si>
-    <t>Are stakeholders adequately engaged in all phases of the planning process?</t>
-  </si>
-  <si>
-    <t>Are plans drafted and executed through a socially inclusive manner?</t>
-  </si>
-  <si>
-    <t>Are flood and drought risks adequately educated and communicated to all levels of society (e.g. in schools or through social-media channels?)</t>
-  </si>
-  <si>
-    <t>Do governments collaborate with scientific communities (e.g. universities) with the primary goal to develop science which can be used to strengthen and better inform decision-making processes?</t>
-  </si>
-  <si>
-    <t>Is hydro-climatic information and data collected and stored considering the principles of "open-data"?</t>
-  </si>
-  <si>
-    <t>Is there a national framework for coastal zone management planning in place, derived from e.g. specific coastal zone management laws, environmental laws, land use planning laws and/or ocean governance laws?</t>
-  </si>
-  <si>
-    <t>Is water supply governed through the framework of a water supply and sanitation law?</t>
-  </si>
-  <si>
     <t>Is there a specific irrigation or agriculture law in place which sets out the requirement for the preperation of Irrigation Water Supply Plans?</t>
   </si>
   <si>
-    <t>Are local watershed management organizations in place?</t>
-  </si>
-  <si>
-    <t>Are watershed plans part of the integrated river basin management plans?</t>
-  </si>
-  <si>
-    <t>Is there an agriculture law in place as the overall framework for all agricultural-related activities?</t>
-  </si>
-  <si>
-    <t>Is there a forest law in place that governs actrivities in designated forest lands, with respect to a.o. forest management and timber harvesting, for both public and private land?</t>
-  </si>
-  <si>
-    <t>Are wetlands addressed in either a natural resources management law or a standalone wetlands law?</t>
-  </si>
-  <si>
-    <t>Does the water resources law include provisions requiring economic efficiency, sustainability, and transparency in the planning and design of WRI?</t>
-  </si>
-  <si>
-    <t>Is there a national dam safety program in place, governed through the national water resources law or in a stand-alone dame safety law?</t>
-  </si>
-  <si>
-    <t>Does the water resources law/coastal protection law highlight the need to ensure flood control infrastructure safety, while also clearly imposing responsibility for infrastructure maintenance and safety on the owners, imposing responsibility for regulatory oversight on the WRM agency?</t>
-  </si>
-  <si>
-    <t>Does the water resources law provide the basis for a water rights administration process?</t>
-  </si>
-  <si>
-    <t>Does the water resources law govern the use and management of groundwater resources?</t>
-  </si>
-  <si>
     <t>Is there a national flood mapping program in place, mandated either through the water resources law or the DRM law?</t>
   </si>
   <si>
-    <t>Is land use planning regulated through the DRM law?</t>
-  </si>
-  <si>
-    <t>Does the DRM/water resources law specify the appropriate geographical scale for flood mitigation planning and their scope?</t>
-  </si>
-  <si>
-    <t>Does the drought law should highlight drought monitoring, forecasting, and risk and impact assessment as core functions?</t>
-  </si>
-  <si>
-    <t>Are responses to drought situations clearly described in the drought law?</t>
-  </si>
-  <si>
-    <t>Does the agricultural law provide the authorization for the establishment of the various agricultural disaster support programs?</t>
-  </si>
-  <si>
-    <t>Does the drought law highlight the importance of social protection programs during droughts and mandate that national agencies to provide social protection and develop specific drought contingency plans?</t>
-  </si>
-  <si>
-    <t>Is flood disaster recovery governed by the DRM law?</t>
-  </si>
-  <si>
-    <t>Is flood emergency preparedness, response and relief governed by the DRM law?</t>
-  </si>
-  <si>
-    <t>Is flood forecasting/warning governed by the the meteorlogical law?</t>
-  </si>
-  <si>
-    <t>Are budgetary laws and DRM laws in place that provide the legal and regulatory framework for disaster risk finance?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Co-Production of Services </t>
   </si>
   <si>
@@ -473,7 +223,434 @@
     <t>Overarching Flood Risk Management Framework</t>
   </si>
   <si>
+    <t xml:space="preserve">The legal framework for WRM is typically contained in a water resources law that applies both to surface and groundwater and which addresses issues of water allocation, water quality, water-related environmental sustainability, and water pollution control.  However, in some countries, different aspects of WRM are addressed in separate laws (for example, on groundwater management, irrigation, or water pollution). Moreover, while water resources laws in many countries have long addressed the “harmful” effects of water, it is usually only relatively recently that they have taken a comprehensive approach to floods and droughts. 
+Responsibility for the implementation of a water resources law is usually conferred upon a ministry, such as a water and natural resources ministry or an environment ministry; or on a national water resource management commission or authority which may be established on the basis of the water resources law itself. In the EPIC Response Framework referres to this entity as the WRM agency.
+Water resources laws often provide for the establishment of a high-level inter-ministerial body, such as a National Water Council or National Water Resources Committee to ensure inter-sectoral coordination and participation in decision making. Alternatively, they may confer such a role on the government (cabinet) itself.
+Because water resources do not respect administrative boundaries, modern water resources laws typically provide for water resources management at the level of river basins (or sub-basins) or individual aquifers, resulting in the creation of specific river basin, sub-basin or aquifer management organizations (hereafter “basin agencies”) together with new stakeholder participation mechanisms at basin or sub-basin levels such as “river basin committees”. In practice, river basin agencies can take a number of forms depending on a range of factors (including the size and relative development of the river basin). The agencies can be little more than offices or departments in the WRM agency. Or they can be organizations with their own legal authority established on the basis of the water resources law. Or they can be largely self-funding quasi-autonomous river basin organizations in which the river basin committee is effectively also the management board of the basin organization  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is there a water resources law including IWRM priciples, mandating the implementation of the law to a WRM agency, establishing a high level inter ministerial collaboration body, and basin agencies to implement river basin planning? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In an increasing number of countries, the legal framework for DRM is contained in a specific DRM law. DRM programs are typically established based on the provisions of such a law. Reflecting developments at the international level, the focus of such legislation has shifted from disaster risk response to DRM. 
+A DRM law typically confers specific powers on a specialized DRM agency that is usually under the direct supervision of the government at a high political level, such as the president or prime minister, due to the need for inter-sectoral cooperation and rapid response during an emergency. Very often, provision is made for the establishment of an apex body, such as a National Disaster Committee, to ensure coordination between state actors, civil society, and the international community. Often too, provision is made for sub-national emergency committees, and a key role of a DRM law is to provide the necessary linkages at the sub-national level among different actors. 
+Nevertheless, a DRM law cannot by itself fully address disaster risk reduction. DRM laws should be viewed as part of an overall system of risk governance that includes different laws and local government mandates that can reduce exposure and underlying vulnerabilities, particularly by preventing the creation of new risks. DRM laws can be used to create formal links between the mandates and institutions created by DRM laws and sectoral and local government laws, for example building codes and land use management. Such an approach can help encourage joint policy approaches and put better mainstream DRM concepts into practice. 
+Many of the provisions in a DRM law are related to flood and drought risk management, either directly or indirectly, as floods and droughts are common disasters confronted by most countries. The degree to which floods or droughts are directly addressed in a DRM national framework is related to their hazard level in the country concerned. </t>
+  </si>
+  <si>
+    <t>Is there a DRM law confering powers to a DRM agency to lead inter-sectoral coordination under high level government, establishing an apex body   national strategic disater risk management plan in place?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Framework Description </t>
+  </si>
+  <si>
+    <t>In most cases, existing laws define some of the roles and responsibilities of sectoral agencies relating to drought management. For example, a water resources law may require the WRM agency to plan for and respond to droughts. A DRM law may authorize the DRM agency to take certain actions during a drought. At the same time, an agriculture law may provide the agriculture agency with the authority to help farmers and livestock producers prepare for and respond to drought. A drought legal framework, however, goes beyond the sector-specific laws and seeks to coordinate and synergize the efforts of several different entities.
+There are various legal instruments that can be used to facilitate the establishment of a legal framework for drought risk management. A drought law can be adopted to provide a stable, long-term foundation for improving drought risk management. This might be an actual law approved by the legislature. Alternatively, it may a presidential decree or a government (cabinet) decision that can directly coordinate the activities of different agencies concerned with aspects of drought risk management.  
+A law, decree, or decision should typically do three things. First, it should set out a general policy on drought risk management, with an overall strategy of moving from crisis management to proactive drought risk management. Second, it should establish an interagency Drought Committee specifying its functions, membership, and secretariat. Third, it should require the preparation and periodic revision of a National Drought Strategic Plan. Within the framework of the Drought Committee, it will also be important to include local governments, particularly those overseeing affected areas, as well as other stakeholder groups such as water utilities, farmers, and industry. 
+The Drought Committee also usually includes specific working groups, for example to provide drought monitoring and assessment, and prepare the National Strategic Drought Plan. The Drought Committee is essentially responsible for overseeing all the drought-related programs in the EPIC Response Framework and ensuring their continuous and synergistic development. Finally, the Drought Committee should always be active, even during non-drought periods, although meetings of the Committee may be less frequent in such circumstances.
+Most of the programs related to drought risk management are mapped to the WRM, DRM, hydro-met and agriculture frameworks and these are typically the most active agencies in the Drought Committee. Typically, one of the agencies will serve as the “anchor agency” or secretariat for the Drought Committee. In countries with well-developed water resources management systems, it is usually the WRM agency; in other countries it may be the agriculture agency. .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is there a law, drecree or decision in place setting out a general policy on proactive drought risk management; an interagency droguth commitee functions, membership, secretariat and working groups; and mandating the periodic preparation of a National Drought Strategic Plan?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are the synchronized WRM, DRM and Hydro-Met sector frameworks enough to address flood risk management issues or is a specific overarching flood risk management framework necessary to manage flood risks? </t>
+  </si>
+  <si>
+    <t>Do the national WRM and DRM agencies and Drough Committee have programs in place to collaborate with local government in the management of floods and drought?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local governments play pivotal roles in responding to flood and drought disasters. Local governments need to work in concert with national DRM agencies to respond to floods. They serve as one of many channels to warn about floods, to help evacuate residents, to ensure public safety, to provide relief to impacted people, and to help guide recovery efforts.  Local governments can work in concert with national agencies on drought issues; they can help disseminate information as the drought unfolds, implement emergency drought measures, administer drought assistance, and support social protection programs.
+Local governments also play important roles in flood and drought risk mitigation. Local Government have a central role in land use planning, building regulations, and preparing local flood mitigation plans. They also oversee urban water supply and drought contingency plans. Local governments invest in localized water resources infrastructure to mitigate flood and drought hazards, including stormwater drainage systems, local flood control projects, and water supply and sanitation systems (typically through their water utilities). The capacity and authority of local governments to contribute to hydro-climatic risk management varies considerably among, and sometimes within, countries. A 2017 survey examined the authority, capacity, and responsibilities of 151 cities around the world with respect to disaster risk reduction. </t>
+  </si>
+  <si>
+    <t>Is the importance of social inclusion highlighted in the laws governing your program (e.g. WRM, DRM, Hydro-Met or Drought Law?)</t>
+  </si>
+  <si>
+    <t>Is the importance of education and risk communication highlighted in the laws governing your program (e.g. WRM, DRM, Hydro-Met or Drought Law?)</t>
+  </si>
+  <si>
+    <t>Is the importance of public participation and stakeholder engagement highlighted in the laws governing your program (e.g. WRM, DRM, Hydro-Met or Drought Law?)</t>
+  </si>
+  <si>
+    <t>Is the importance of scientific collaboration highlighted in the laws governing your program (e.g. WRM, DRM, Hydro-Met or Drought Law?)</t>
+  </si>
+  <si>
+    <t>Is there a National Open Data Law or Policy in place providing gneeral priciples for improving public access to information, designating a lead agency to provide with guidelines to help sectoral agencies develop their own specific open data programs and help establish cross-agency information platforms?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the Meteorological Law define a clear mandate including all relevant actors beyond the National Meteorological Services/National Hydrological Services? </t>
+  </si>
+  <si>
+    <t>Does the Meteorological Law enable and promote public-private partnerships?</t>
+  </si>
+  <si>
+    <t>Does the Meteorological Law establishes a framework for adequate public financing? Do the WRM, DRM and drought national strategic plans provide a platform to advocate for sustainable funding for hydro-met services?</t>
+  </si>
+  <si>
+    <t>Does the Meteorological Law provide the basis for ensuring open data?</t>
+  </si>
+  <si>
+    <t>Does the Meteorological Law anable the implementation of global collaboration initiatives (for example with the WMO)?</t>
+  </si>
+  <si>
+    <t>Depending on the country concerned, the national framework for coastal zone management planning may derive from a specific coastal zone management law, or as part of broader environmental law, land use planning law, or ocean governance law. 
+Irrespective of its title, the relevant law should set out the specific requirements for the preparation and periodic review of coastal zone management plans, for example every five years. The law should empower a national agency to facilitate the coastal planning process, which could potentially be drawn from many different sectors, to establish regulations and technical guidelines for the preparation of coastal zone management plans. The law may also authorize the creation of Coastal Planning Authorities that are responsible for preparing or overseeing the preparation of coastal zone management plans. Coastal Planning Authorities can take on many forms, from an inter-governmental committee established for the purpose of the planning exercise to a less common permanent organization with its own budget and staff. 
+The water resources law should clearly indicate that the WRM agency has the lead responsibility for permitting and regulating, and in some cases constructing and operating, flood defense structures located along the coast, such as sea dikes, flood walls, storm surge barriers, and coastal groins. Ideally, the coastal zone management law should specify the general functions of the national WRM agency in the coastal zone planning process.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While practice varies from country to country, water utilities typically operate within the framework of a water supply and sanitation law which will also specify their relationship with: (1) the relevant local government; (2) the agency responsible for the implementation of the law; (3) relevant sector regulators, if any (including economic regulators responsible for approving tariffs and setting service standards and regulators for ensuring compliance with drinking water standards); and (4) consumer representative bodies. Such legislation may also require the preparation of UWSPs and WSCPs. 
+However, the actual storage and abstraction of water from natural sources by water utilities is usually subject to the water resources law and should be regulated by the WRM agency based on long-term water use permits. This, in turn, provides an opportunity to link the preparation of UWSPs/WSCPs to the river basin management planning process and even to require the preparation and periodic review of UWSPs/WSCPs as conditions for long-term water use permits or regulations adopted pursuant to the water resources law. The drought law should also ideally highlight the importance of urban drought management and its linkages to basin planning. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The national framework for irrigation service providers is typically set out in a specific irrigation or agriculture law which may set out a requirement for the preparation of IWSPs. However, as with the case of water utilities, the storage and abstraction of water by irrigation service providers is usually subject to the water resource law and should be regulated based on long-term water use permits. As necessary, this may therefore provide an opportunity to require the preparation of IWSPs as permit conditions or in accordance with regulations adopted pursuant to the water resource law. The national drought law should also ideally highlight the importance of agricultural water management and its linkages to basin planning. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Due to the importance and complexity of forest management, most countries have a standalone forest law. Such a law typically governs activities in designated forest lands, most commonly with respect to forest management and timber harvesting and pertains to both public and private land. A forest law sets out general policies such as multiple and sustained use by which forest lands are to be managed and should also recognize the rights of local or indigenous communities who have traditionally relied upon forest resources. Protected area laws may also play an important role in forest management. 
+The role of forests in reducing flood and drought risks should be highlighted in the forest law. The law should also mandate a periodic National Forest Strategic Plan (like WRM and DRM National Strategic Plans) and the preparation of site-specific forest management plans for high-priority areas. The forest law should also authorize specific forestry management programs, which can include a wide variety of interventions such as multi-purpose public forest management, regulation of timber harvesting, and community forestry. At the same time, it is important to ensure that there is a link between river basin plans, as described in Chapter 6, with forest management planning by identifying, for example, forested areas that are in particular need of protection from a WRM perspective. 
+Two types of forest programs are particularly important for hydro-climatic risk management. The first are upper-watershed programs that are dedicated to promoting soil and water conservation. Globally, an estimated 400 million hectares of forest land has been designated primarily for the protection of soil and water. That represents a four-fold increase since 1990. 
+In some cases, soil and water conservation practices can be promoted though forestry regulations. In other cases, agency-administered incentive programs may also be required to help private landowners or local communities absorb the additional costs or lost income caused by implementing forestry-related soil and water conservation practices. In this regard there is potential to link funding for improved forest management with WRM through payment for environmental services (PES) programs under which forest rights holders are paid to maintain forested areas by downstream beneficiaries of lower runoff.  This can be a cheaper alternative in terms of reducing flood risks than the construction of water infrastructure. 
+The second type of program aims to protect, manage, or restore coastal forests. An important example of coastal forests are mangroves in tropical regions. Mangrove forests are important for fisheries, timber, and plant products, and they also play a critical role in coastal protection. Their dense root systems trap sediments flowing down rivers and off the land. This helps stabilizes the coastline and prevents erosion from waves and storms. In areas where mangroves have been cleared, coastal damage from hurricanes and typhoons is much more severe. By filtering out sediments, the forests also protect coral reefs and seagrass meadows from being smothered in sediment. Managing coastal mangroves typically involves working with local communities to develop management plans and often providing financial incentives. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wetlands management issues are often addressed in a framework natural resources management law or, depending on the relative importance of wetlands in the country concerned, in a standalone wetlands law. Particularly where they have high ecological, botanical, or zoological importance, wetlands may be designated as protected areas on the basis of natural resources management laws or specific protected area laws. However, water resources laws also have an important role to play in wetlands management in terms of ensuring that over-abstraction does not harm wetlands through the implementation of minimum or environmental flows and identifying wetlands that merit protection from a flood defense or water management perspective. 
+Drawing upon the Ramsar Convention terminology (UNESCO 1971), laws should highlight the “wise use” of wetlands, which is defined as “maintenance of their ecological character, achieved through an ecosystems approach, within the context of sustainable development.” The wise use concept is about maintaining wetlands values and functions, while at the same time delivering services and benefits now and into the future for human wellbeing (Ramsar Convention Secretariat 2010). 
+The wetlands law should also address generally applicable issues such as the need for integrated planning (potentially linked to river basin planning), environmental impact and permitting programs, and habitat and species conservation. The law may also authorize a variety of incentive programs for landowners and communities to help them maintain, improve, or restore wetlands. The law should also include provisions for site-specific measures, such as the designation of protected wetlands, the development of wetlands management plans, and participatory management. Coordination between different levels of government as well as international cooperation through the Ramsar Convention should be highlighted. </t>
+  </si>
+  <si>
+    <t>Since watershed management cuts across various sectors, there is often no overarching national framework. The basic principles of watershed (or landscape) management are often highlighted in WRM, natural resources, and agriculture laws. As noted at the start of the chapter, natural resources is used in a broad sense and could include a single national sector framework or multiple sector frameworks. The relevant national framework for watershed management depends on the country context, and in many countries,  it may not be well defined. This is one of the great challenges of establishing comprehensive watershed and landscape management systems.
+The national sector frameworks for WaMOs and watershed planning may also be different. In some countries, the national agricultural framework is well placed to authorize the establishment of local WaMOs, as much of the watershed-related technical and financial assistance flows through the agricultural sector. A key point to note is that to be effective, WaMOs need to have independent legal authority so that they can enter into legal relationships with concerned landowners. This will usually need to be specifically addressed in a law. Watershed planning responsibility, which is more of a multi-sectoral activity, is more likely to be authorized through either the WRM or natural resources national frameworks.</t>
+  </si>
+  <si>
+    <t>It is important for the water resources law to include provisions requiring economic efficiency, sustainability, and transparency in the planning and design of WRI. The water resources law should also ideally lay out basic principles for the planning process while allowing the responsible national WRM agency to develop the specific criteria and methodology. The efficacy and applicability of these principles could be periodically reviewed in the National WRM Strategic Plan. 
+The national planning agency and the national finance agency have a vested interest in ensuring sound infrastructure investment and may also require the national WRM agency to develop clear guidance on the planning and funding of WRI.</t>
+  </si>
+  <si>
+    <t>The authorization for a national dam safety program is typically provided in a national water resources or a standalone dam safety law. The law should ideally authorize a national dam safety regulator, which is typically a WRM agency.  However, in some countries there are multiple dam safety regulators serving different sectors, for example hydropower, mining, and water resources. In cases where there are multiple regulators, they should ideally be under a single national dam safety law with one organization—typically the WRM agency, responsible for overall coordination and supervision.  
+The law should provide the dam safety regulator with the power to: (1) license new or modified dams; (2) perform periodic inspections during construction and operation phases; (3) require owners of dams to perform necessary maintenance or remedial work, install and monitor instrumentation, improve security, revise operating procedures, or take other actions, including holding down storage in anticipation of flood surges and breaching dams when necessary; and (4) issue sanctions, including imposing financial penalties or pressing criminal charges, and requiring the cessation of operations as necessary. 
+The law should include a provision for dam safety emergency management plans. However, jurisdiction over these plans may reside with either or both the dam safety regulator and the national DRM agency. Since the implementation of the emergency management plan requires coordination with downstream local government and civil defense authorities, the national DRM agency typically plays an important role.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flood infrastructure safety programs are usually linked to water resources laws but may be subject to coastal protection laws when coastal infrastructure is involved. The water resources law should highlight the need to ensure flood control infrastructure safety and should clearly impose responsibility for infrastructure maintenance and safety on the owners, while also imposing responsibility for regulatory oversight on the WRM agency. 
+The law should also require the WRM agency to set up a national flood control infrastructure safety program and identify funding sources for maintenance and rehabilitation (which may include local governments). Elements of the national flood control infrastructure safety program should include a national database or register to which relevant agencies and the public should have access, the establishment of a national flood infrastructure safety committee, the establishment of a hazard classification system, the adoption of regulations and guidelines for flood control infrastructure management, an emergency response plan, the provision of technical assistance and training, efforts to raise public awareness, and provision of insurance. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The water resources law provides the basis for a water rights administration system. It specifies general principles for water allocation and typically authorizes the WRM agency to issue water use permits and to monitor and enforce those permits. The water resources law usually either establishes priorities for use or sets out a procedure for such priorities to be set at the national or river basin level, typically providing that water for human consumption and ecological needs is given the highest priority use. 
+The water resources law will also set out the basic rules relating to the temporary and permanent variation or suspension of water use permits. There is a close relationship between the national drought law and water allocation. The national drought law typically provides the authority to declare different levels of drought severity, which may trigger mandatory conservation measures and the temporary reallocation of water among users. Provisions in a water law that relate to water allocation should in turn be implemented in close coordination with provisions on the setting and enforcement of minimum or environmental flows and the protection of such flows during droughts. </t>
+  </si>
+  <si>
+    <t>The water resources law typically governs the use and management of groundwater resources. Whereas surface water is always front and center in the water resources law, the status of groundwater is often more ambiguous. However, the same basic water tenure arrangements typically apply to groundwater, including water use permits and water rights that derive from land ownership or prior appropriation and use. However, the enforcement of groundwater permitting regimes can be challenging and as a result there is a growing trend towards co-management between the WRM agency and groundwater users.  
+The strict control of well drilling is important. This is done by licensing qualified well drillers as well as by using licenses to control where and how many wells may be drilled, how drilling is to take place in terms of aquifer protection (such as by ensuring that test wells are capped to prevent the entry of contaminants), and that the results are communicated with the WRM agency. 
+The water resources law should also explicitly promote the use of conjunctive water management, whereby groundwater management plans are nested within a larger basin context for both planning and operational purposes. The national WRM agency should also allow for the possibility of “groundwater banking”, whereby a GwMO can utilize its aquifer for either temporary (during droughts) or permanent transfer of water to other users; this can be particularly attractive for agricultural areas that can sell water to urban users during periods of extreme drought.
+While groundwater is also, in principle, subject to river basin management plans, in arid countries where there are particularly important aquifers, a water resources law may provide for the preparation and implementation of  aquifer management plans, the setting of sustainable extraction yields, and also the classification of aquifers by reference to their state of exploitation, with overexploited aquifers being closed to the drilling of new boreholes or wells and to the issuance of water use permits. Since each aquifer will require its own unique plan, it is common for the water resources law to authorize “groundwater management organizations” (GwMOs) which operate under the jurisdiction of the WRM agency</t>
+  </si>
+  <si>
+    <t>The establishment of a national flood mapping program should be mandated through either the water resources law or the DRM law. The law should authorize the WRM agency or DRM agency to implement a prioritized and continuous program of river and, as appropriate, coastal floodplain mapping. The law should also provide that the mapping information be freely available to the public in a manner that is digital geospatial data compliant. Given the complex and often contentious nature of flood mapping, consideration should be given to the establishment of a technical mapping advisory committee and potentially a dispute resolution mechanism. No single agency has the capacity to independently produce flood maps, and the law should also specify the necessary interagency and local government cooperation mechanisms so that the WRM or DRM agency can freely access available data. Finally, the law should require a vigorous communication and outreach program to communicate the results, uses, and limitations of floodplain mapping.</t>
+  </si>
+  <si>
+    <t>Land use management is generally the legal responsibility of local governments in accordance with land use planning legislation but is subject to controls promulgated by the national (or regional) government, particularly in matters related to public safety, environment, and defense. The DRM law may specifically mandate that local governments adopt and implement acceptable floodplain management ordinances; alternatively, the DRM law may provide incentives or sanctions to help compel local governments to adopt floodplain management ordinances, for example by controlling funding for flood control infrastructure, flood disaster aid, or flood insurance. The DRM law should mandate the DRM agency to prepare model flood ordinances and guidelines, provide technical assistance to local governments, and as appropriate approve and regulate the implementation of local floodplain management programs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The DRM or water resources law should specify the appropriate geographical scale for flood mitigation planning, as well as the scope of the plan. The DRM law may mandate that local governments prepare multi-hazard mitigation plans, which should include flood (and potentially drought) plans as appropriate. Alternatively, the DRM law may provide incentives or sanctions to help compel local governments to prepare hazard mitigation plans, for example by controlling flood infrastructure funding, flood disaster aid, or flood insurance. The DRM law should mandate that the DRM agency prepare hazard mitigation plan guidelines, provide technical assistance and funding to local governments for preparation of the plans, and ideally include a grant program to support funding of priority flood mitigation investments. 
+In some cases, the water resources law may mandate standalone river floodplain management plans or strategies that are separate from the river basin plans and that span multiple local government jurisdictions. Since many of the mitigation actions must be undertaken by local governments, it is imperative to include local governments in river floodplain management plans or strategies. In some cases, it may be possible—even ideal—to develop complementary local government multi-hazard mitigation plans and regional river floodplain management plans. </t>
+  </si>
+  <si>
+    <t>The drought law should highlight drought monitoring, forecasting, and risk and impact assessment as core functions under the overall auspices of the Drought Committee. The law should spell out the institutional arrangements for a DMP. Given the multi-disciplinary nature of drought monitoring, it is important to include all relative agencies, including but not necessarily limited to meteorological, hydrological, water resources, agriculture, disaster risk management, and natural resources management agencies. 
+The drought law should therefore create a Drought Monitoring Subcommittee anchored in one of the specialized agencies. The drought law should also provide the authorization to the Drought Committee or the Drought Monitoring Subcommittee to establish standing or ad hoc “Impact Assessment Groups” which can operate based on terms of reference appropriate to the specific drought conditions. The drought law should also spell out the authorizing power of the Drought Committee, or of the Government on the recommendation of the Drought Committee, to formally issue a Drought Level for a specific region based upon its independent assessment. The drought law may also authorize the Government to formally declare a disaster in a region if the drought level reaches a certain threshold, thus initiating disaster management protocols.</t>
+  </si>
+  <si>
+    <t>The agricultural law provides the authorization for the establishment of the various agricultural disaster support programs. Typically, the law will authorize each specific disaster support program and provide broad principles and guidelines for its implementation. The agriculture agency is then mandated to administer the various programs. The drought law should specify that the agriculture agency is a core member of the Drought Committee, helping to shape the government’s response to drought as well as serving as a channel for representing agricultural interests and impacts. In addition, the drought law may specify the general role of the Drought Committee in providing objective drought information to help guide the administration of the agricultural disaster support programs.</t>
+  </si>
+  <si>
+    <t>The drought law should highlight the importance of social protection programs during droughts and mandate that national agencies providing social protection develop specific drought contingency plans. The drought law should also mandate that the lead social protection agencies are members of the Drought Committee, and that drought-related social protection programs are included in the National Drought Plan. Either the DRM law or the water resources law should require the responsible agency to work with local governments to ensure that contingency plans are in place for the provision of emergency water and food supplies for towns and rural areas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The DRM law provides the overarching framework for responding to emergencies, including floods. It should authorize the DRM agency to lead the periodic formulation of a multi-sectoral and multi-jurisdictional National Strategic DRM Plan that includes a component on disaster response. The DRM law should authorize an EMS and provide the DRM agency with authority to direct different agencies and local governments in a unified response to an emergency. The law may also require local governments to formulate local Emergency Plans, potentially regulated by the DRM agency.
+The DRM law may also create a government (Cabinet level) Disaster Management Committee to oversee the response to large-scale disasters, and provide for the issuing of Disaster Declarations, usually issued by the Executive. A flood Disaster Declaration may be linked to the provision of flood recovery programs as discussed in the next section.
+The water resources law should provide the WRM agency with the authority to act in the event of a flood emergency, including authorizing reservoir releases that result in downstream flooding as a dam safety measure, and controlled flooding through designated flood channels or intentionally breaching an embankment. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Flood Forecasting and Warning </t>
+  </si>
+  <si>
+    <t>The preparation and periodic revision (for example every five years) of a river basin management plan is typically required by the water resources law. Such a law will also typically specify the minimum content of river basin management plans and their legal relationship with other relevant plans (such as which has priority). It also will specify the plans’ role in the implementation of the water resources law itself, for example in the setting of priorities and decisions on water allocation as discussed in more detail below. 
+The water resources law will also typically set out the procedure for the development of river basin management plans, which given their cross-cutting nature should involve broad stakeholder consultation including with agencies responsible for elements of the hydro-climatic risk framework. The law will also typically specify who is to adopt such a plan.
+Water resources laws typically require the plans to be approved at a high level through adoption by the government (the cabinet) or by the high-level inter-ministerial body (if one exists), such as a national water council or a national water resources committee. Such a requirement should enable the effective participation of agencies involved in hydro-climatic risk management, particularly as regards the elements of primary concern to them (such as industry, agriculture, power generation, and environment).
+The preparation of river basin management plans is typically the responsibility of the relevant river basin agency (alternatively, the WRM agency if there is no river basin agency), with the participation and ideally under the supervision of the river basin committee in which, as already mentioned, relevant stakeholders within the basin should be represented, including agencies involved in aspects of hydro-climatic risk management. Only with sufficient buy-in from stakeholders is a river basin management plan is likely to be effective.
+The National Drought Plan provides the overall framework for managing droughts, assigning responsibilities, ensuring a robust drought monitoring and assessment system, and overseeing the drought response. As a drought unfolds and different drought impact levels are triggered, the Basin Plan Drought Contingency Plan provides a foundation for WRM agencies to take appropriate actions. Other actors, such as urban water utilities, agriculture service providers, national agriculture agencies, natural resources management agencies, and disaster management agencies should ideally also have their own drought management plans.</t>
+  </si>
+  <si>
+    <t>Is there a national law (e.g. specific coastal zone management laws, environmental laws, land use planning laws and/or ocean governance laws) that sets out specific requirements for the periodic preparation of coastal zone management plans, empowers a national agency to facilitate the coastal planning process together with relevant sectors and stakeholders, and authorize the creation where applicable of coastal planning authorities reponsible for the preparation and implementation of the plan?</t>
+  </si>
+  <si>
+    <t>Is there a water supply and sanitation law which specifies the roles of utilities, the relevant local government, the agency responsible for the implementation of the law and relevant sector regulators, if any (including economic regulators responsible for approving tariffs and setting service standards and regulators for ensuring compliance with drinking water standards), and (4) consumer representative bodies? Does the water supplu law require the preparation of UWSPs and WSCPs?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the water resources law establish a mechanism for the storage and abstraction of water from national sources such as long-term water use permits? Does the WRM Agency regulates the storage and abstraction of water for urban supply? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the water resources law establish a mechanism for the storage and abstraction of water from national sources such as long-term water use permits? Does the WRM Agency regulates the storage and abstraction of water for irrigation? </t>
+  </si>
+  <si>
+    <t>Does the DRM or WRM Law mandate local governments to prepare flood mitigation plans, establish the content and procedure, and provide with incentives or sanctions?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the DRM mandate the DRM Agency to prepare hazard mitigation planning guidelines, provide technical assistance and funding for local govenrment to prepare the plans? </t>
+  </si>
+  <si>
+    <t>Does the WRM Law mandate stand alone river floodplain management plans that are separate from the river basin plans and that span and include multiple local governments?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the irrigation or agriculture law mandate the Agriculture Agency to prepare irrigation water supply planning guidelines, provide technical assistance and funding for irrigation water suppliers to prepare the plans? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the water supply and sanitation law mandate the WRM Agency to prepare urban water supply planning guidelines, provide technical assistance and funding for urban water suppliers to prepare the plans? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the specific national law mandate the Natural Resources Management Agency to prepare integrated coastal zone management planning guidelines, provide technical assistance and funding for coastal management authorities to prepare the plans? </t>
+  </si>
+  <si>
+    <t>Does the WRM Law require the periodic preparation, describes the minimal content and establishes the procedure including approval of basin management plans?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the WRM law mandate the WRM Agency to prepare basin management planning guidelines, provide technical assistance and funding for basin authorities to prepare the plans? </t>
+  </si>
+  <si>
+    <t>Does the Agricultural law highlight the importance of land stewardship and its role in maintaining a healthy environment and reducing hydro-climatick risks?</t>
+  </si>
+  <si>
+    <t>Agriculture law provides the overall framework for all agricultural-related activities in a country. It is generally broad and can address many different issues, such as price supports and subsidies, agricultural-related infrastructure, training and extension services (including farmer field schools), agricultural inputs (seed, water, and fertilizer), finance, labor, marketing, insurance, trade, and agricultural processing. As agriculture law has evolved over time, new subjects have emerged such as land stewardship and sustainability, animal welfare, and food safety.
+Agriculture law should highlight the importance of land stewardship and its importance in maintaining a healthy environment and reducing hydro-climatic risks. As in other sectors, there should be periodic national strategic plans that look at agriculture from a broad and integrated perspective. Of particular importance is ensuring that different policies work in synergy. For example, subsidies and price support for water-consuming crops such as sugar cane or rice may clash with other objectives such as drought resilience, water allocation efficiency, or sustainable land management. The law should authorize the agriculture agency to implement programs that support CSA that is suitable for the specific country context.</t>
+  </si>
+  <si>
+    <t>Does the Agricultural law mandate the Agricultural Agency to implement Climate-Smart Agriculture Programs?</t>
+  </si>
+  <si>
+    <t>Does the Agricultural law mandate the periodic preparation of an agricultural national strategic plan to guide the development of the agricultural sector and enable coordination with other sectors such as WRM and DRM?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is there a forest law in place that governs activities in designated forest lands, with respect to a.o. forest management and timber harvesting, for both public and private land? Does the forest law set out general policies such as multiple and sustained use and recognize the rights of local and indigenous communities? Is there a protected areas law that regulates the protection of forest? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the Forest Law Mandate the periodic preparation of National Forest Strategic Plan and the preparation of site-specific forest management plans gor high-priority areas? </t>
+  </si>
+  <si>
+    <t>Does the Forest law authorizes specific forestry management programs such as upper watersheds and wetlands management?</t>
+  </si>
+  <si>
+    <t>Does the WRM law recognize the importance and protection of wetlands (e.g. minimun environmental flow) from a hydro-climatic and water resources management perspective?</t>
+  </si>
+  <si>
+    <t>Does the national law authorize incentive programs for landowners and communities to maintain, improve and restore wetlands?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is there a national law (e.g. natural resources management, protected areas or specific wetland law) regulating the use and protection of wetlands? Does the national law highlight the importance of wetlands in hydro-climatic risk management? Does the national law highlight the wise use of wetlands maintaining watlands values and functions while delivering sustainable services and benefits? Does the law authorize site-specific measures such as its designation as protected area, development of wetlands management plans and participatory management. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the law include the importance of international cooperation through the Ramsar convention? </t>
+  </si>
+  <si>
+    <t>Watershed Management</t>
+  </si>
+  <si>
+    <t>Is the importance of watershed management highlighted in the WRM, natural resources or agricultural laws? Does a national law (e.g. agriculture, WRM, natural resources) authorize the stablishment of WaMOs as independent legal authorities as well as mandate a national agnecy to provide technical and financial support? Does a national law authorize the periodic preparation of watershed management plans?</t>
+  </si>
+  <si>
+    <t>Does the national law highlight the importance of preparing watershed plans as part of or in coorditation with integrated river basin management plans?</t>
+  </si>
+  <si>
+    <t>Does the law authorize a national dam safety regulator with the power to (1) license new or modified dams; (2) perform periodic inspections during construction and operation phases; (3) require owners of dams to perform necessary maintenance or remedial work, install and monitor instrumentation, improve security, revise operating procedures, or take other actions, including holding down storage in anticipation of flood surges and breaching dams when necessary; and (4) issue sanctions, including imposing financial penalties or pressing criminal charges, and requiring the cessation of operations as necessary?</t>
+  </si>
+  <si>
+    <t>Does the law mandate the preparation of dam safety management plans under the jurisdiction of the DRM or dam safety regulator?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is there a national dam safety program in place, governed through the national water resources law or in a stand-alone dam safety law? </t>
+  </si>
+  <si>
+    <t>Does the National WRM Strategic Plan periodically review the efficacy and applicability of WRM planning and design principles?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the water resources law include provisions requiring economic efficiency, sustainability, and transparency in the planning and design of WRI? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the water resources law lay down basic principles for WRI planning and design and mandate the WRM agency to develop specific criteria and methodologies, including financing requirements? </t>
+  </si>
+  <si>
+    <t>Does the water resources law/coastal protection law highlight the need to ensure flood control infrastructure safety, imposing responsibility for infrastructure maintenance and safety on the owners and mandate an agency to provide regulatory oversight?</t>
+  </si>
+  <si>
+    <t>Does the water resources law/coastal protection law require the WRM Agency to set up a national flood control infrastructure safety program and identify funding sources for maintenance and rehabilitation?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the water resources law/coastal protection law mandate the development of a national database, a national flood infrastructure safety committee, a hazard classification system, the adoption of regulations and guidelines for flood control infrastructure management, an emergency response plan, the provision of technical assistance and training, efforts to raise public awareness and the provision of insurance? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the water resources law authorize the WRM agency to issue water use permits and to monitor and enforce those permits? </t>
+  </si>
+  <si>
+    <t>Does the water resources law provide the basis for a water rights administration system by specifying general principles for water allocation ? Does the water resources law  establish general priorities for use or sets out a procedure for water use priorities to be set at the national or river basin level generally providing water for human consumption and ecological needs the highest priority use?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Does the water resources law set out the basic rules relating to the temporary and permanent variation or suspension of water use permits in synergy with the national drought management plan? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the water resources law govern the use and management of groundwater resources including water allocation and tenure arrangmeents such as water user permits and water rights deriving from land ownership or prior appropriation and use? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the water resources law mandate the WRM Agency to enforce groundwater permitting regimes as well as control of well drilling? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the water resources law mandate the preparation of groundwater management plans nested within a larger basin plan to operationalize conjunctive water management? </t>
+  </si>
+  <si>
+    <t>Does the water resources law provide for the preparation and implementation of aquifer management plans in high priority aquifers and determines key contant such as sustainable extraction yield, the classification of aquifers by their level of exploitation and associated management actions?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Does the water resources law authorize the creation of groundwater management organizations to prepare aquifer management plans for high priority aquifers? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the water resources or DRM law authorize the WRM Agency or the DRM agency to implemet a program of rivar and coastal flood plain mapping? Does the water resources or DRM law mandate that the hazard mapping be available to the public? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the water resources or DRM law establish the interagency and local government collaboration mechanisms to share data and prepare the maps? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the water resources or DRM law requires a vigorous communication and outreach program to communicate the results, uses and limitations of floodplain mapping? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the DRM law mandate local governments to adopt and implement acceptable floodplain management ordinances (e.g. controlling funding for flood control infrastructure, flood disaster aid or flood insurance? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the DRM law mandate the DRM agency to prepare model flood ordinances and guidelines, provide technical assitance to local governments, and approve and regulate the implementation of local floodplain management programs as appropriate? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the drought law highlight drought monitoring, forecasting, and risk and impact assessment as core functions of the Drought Committee? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the drought law establish the institutional arrengements for a drought management program including all the relevant agencies such as hydro-met, water resources, agriculture, DRM and natural resources management? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the drought law establish a drough monitoring subcommittee anchored in one of the specialized agencies? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the drought law authorizes the drought commitee or the drought monitoring subcommitee to establish standing or ad hoc impact assessment groups? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the drought law spell out the authorizing power of the drought committee or of the govenment on the recommendation of the drought committee to formally issue a drought level for a specific region based upon its independent assessment? </t>
+  </si>
+  <si>
+    <t>Does the drought law authorize the Government to formally declare disaster in a region if the drough level reaches a certain threshold and initiate disaster management protocols?</t>
+  </si>
+  <si>
+    <t>Drought Monitoring, Response and Recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the drought law mandate the preparation of drought management plans at the basin, urban water supply and irrigation water supply level? Does the drought law mandate the preparation of a national drought management plan with thresholds that activate particular actions including water reallocation systems and conjunstive water management? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a drought unfolds, and a region transitions through different levels of drought severity as informed by the DMP, these various drought contingency plans need to be activated. Each of these plans will most likely have even more detailed pre-determined thresholds and triggers for sector- or location-specific drought actions. For cities and irrigation schemes, this generally means increasing levels of voluntary and then mandatory water conservation coupled with prioritization of water uses. In the most extreme droughts, cities and rural communities may have to tap into emergency sources of water or distribute water through tankers.
+During droughts, water use needs to be coordinated at the basin level to ensure water allocations are in alignment with the overall basin drought contingency plan. As highlighted in Chapter 9, the WRM agency should ideally administer a water use permit system that has clear rules of priority during periods of water shortage or drought. Ideally, this permit system would be flexible enough to accommodate priority and equitable use of water during droughts, either through administrative decisions by the WRM agency—preferably within the context of deliberations within the Drought Committee—or through a water rights trading system. The role of conjunctive groundwater management was also highlighted in Chapter 9, underscoring the need to facilitate the storage of water in aquifers during non-drought periods and then abstracting groundwater for use during droughts. The challenge is to ensure that the sustainable yield of an aquifer is not exceeded over the long run.
+The WRM agency often, but not always, serves as the anchor agency for the Drought Committee. In regions where cities, industries, and farms rely heavily on surface water or groundwater, particularly when delivered through regional water conveyance systems, the WRM agency has a critical role to play in drought response. As a core member of the Drought Committee, it should monitor and report on the implementation of the various drought management measures, as well as the overall water balance at the river basin level. The WRM agency also has a central role to play in drought communication and public outreach during droughts, reaching out through its various channels to create a culture of water conservation and water use efficiency. The WRM agency can build upon emergency water conservation activities during droughts to help promote the necessary policy, legal, and institutional reforms to further the agenda of water stewardship. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the agricultural law provide the authorization for the establishment of the various agricultural disaster support programs and provide broad principles? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the agricultural law mandate the agriculture agency to administer the programs and prepare guidelines? </t>
+  </si>
+  <si>
+    <t>Does the drought law specify that the agriculture agency is a core member of the drought committee and mandate the drought committee to provide information to help guide the administration of agricultural disaster support programs?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the drought law highlight the importance of social protection programs during droughts and mandate that national agencies to provide social protection and develop specific drought contingency plans? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the drought law  also mandate that the lead social protection agencies are members of the Drought Committee, and that drought-related social protection programs are included in the National Drought Plan? </t>
+  </si>
+  <si>
+    <t>Does the DRM law or the water resources law require the responsible agency to work with local governments to ensure that contingency plans are in place for the provision of emergency water and food supplies for towns and rural areas?</t>
+  </si>
+  <si>
+    <t>Flood Monitoring, Response and Recovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+The roles and responsibilities of the various agencies involved in flood monitoring, forecasting, and warning need to be clearly spelled out in the various national frameworks to enable the necessary collaboration. The meteorological law should provide the NMS/NHS with the authority to help facilitate the “weather enterprise” in the country, encouraging collaboration with regional and global weather centers, as well enabling the private sector to both generate and disseminate weather information and forecasts as appropriate. 
+The meteorological law typically authorizes the NMS/NHS to issue coastal storm surge forecasts. Ideally, the meteorological law should also mandate the cooperation of the responsible oceanographic agency if this function is separate from the NMS/NHS. For river flooding, the water resources law usually authorizes the WRM agency to provide flood forecasts. Some countries have created a National Flood Forecasting Center which is authorized either through the WRM or meteorological law and can consist of staff from both the NMS and the WRM agency. 
+The DRM law should authorize the DRM agency to issue geographically-specific flood emergency warnings as one component of its multi-hazard warning and emergency response system. However, the DRM law should clearly spell out that the flood warnings must be issued in consultation with the agency responsible for the flood monitoring and forecasting.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the meteorological law, water resources law and other relevant laws establish a clear frameowkr for collaboration for all the agencies involved in flood monitoring, forecasting and warning? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the meteorological law provide that NMS/NHS with the authority to facilitate the "weather enterprise" encouraging collaboration with regional and global centers as well as participation of the private sector? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the meteorological law authorize the NMS/NHS to issue coastal storm surge forecasts or mandate the cooperation of the responsible oceanographic agency if this function is separate from the NMS/NHS? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the the water resources law authorize the WRM agency to provide flood forecasts for river flooding? Does the water resources or the meteorological law authorizes the creation of a National Flood Forecasting Center and  consists of staff from both the NMS and the WRM agency? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the DRM law provide the overarching framework for responding to emergencies, including floods? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the DRM law authorize the DRM agency to lead the periodic formulation of a multi-sectoral and multi-jurisdictional National Strategic DRM Plan that includes a component on disaster response? </t>
+  </si>
+  <si>
+    <t>Does the DRM law authorize an EMS and provide the DRM agency with authority to direct different agencies and local governments in a unified response to an emergency?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Does the DRM law require local governments to formulate local Emergency Plans, potentially regulated by the DRM agency?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the DRM law create a government (Cabinet level) Disaster Management Committee to oversee the response to large-scale disasters, and provide for the issuing of Disaster Declarations, usually issued by the Executive? </t>
+  </si>
+  <si>
+    <t>Does the DRM law links the flood Disaster Declaration to the provision of flood recovery programs?</t>
+  </si>
+  <si>
+    <t>Does the water resources law provide the WRM agency with the authority to act in the event of a flood emergency, including authorizing reservoir releases?</t>
+  </si>
+  <si>
+    <t>The DRM law typically authorizes disaster recovery programs and mandates the DRM agency to establish regulations for their implementation. Given the urgency and local nature of most disaster recovery activities, the DRM law may authorize the DRM agency to transfer—or approve the transfer of—disaster recovery funds to other specialized agencies and local governments. The DRM law may authorize the use of emergency review processes and procurement methods to meet urgent needs. The DRM law typically authorizes a national insurance program mandating the DRM to administer the program. Given the financial complexity of a flood insurance programs, there may be a special “national insurance unit” either within or outside of the DRM agency.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the DRM law authorize disaster recovery programs and mandates the DRM agency to establish regulations for their implementation? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the DRM law may authorize the DRM agency to transfer—or approve the transfer of—disaster recovery funds to other specialized agencies and local governments.? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the DRM law  authorize the use of emergency review processes and procurement methods to meet urgent needs? </t>
+  </si>
+  <si>
+    <t>Does the DRM law authorizes a national insurance program and mandates the DRM agency to administer the program? Does the law mandate the creation of a special “national insurance unit” either within or outside of the DRM agency?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Does the budgetary law establish a clear process by which the is budget allocated, and the level of discretionary funding by national agencies or local governments to accommodate the needs during the response, relief, and recovery phases?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Does the budget law include a provision for a national disaster fund, including guidelines for the size of the fund, and its utilization? </t>
+  </si>
+  <si>
+    <t>Does the budgetary law mandate the preparation of emergency procurement procedures that may need to be employed to rapidly respond to disaster needs?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do the budgetary law and the DRM law set the foundation for disaster risk finance? </t>
+  </si>
+  <si>
+    <t>Does the budgetary law explicitly authorize the finance agency to develop and implement a disaster risk financing strategy?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the DRM law mandate the DRM agency to work with the finance agency to develop a disaster risk financing strategy? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do the DRM or budgetary law outline the role of the DRM agency in administering or overseeing disaster funds? </t>
+  </si>
+  <si>
+    <t>Does the DRM law require the DRM agency to develop procedures for recommending or declaring a state of national emergency and their link with triggering contingent credit lines or provide access to a national disaster fund?</t>
   </si>
 </sst>
 </file>
@@ -798,7 +975,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,14 +1140,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1326,590 +1504,1502 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.42578125" customWidth="1"/>
     <col min="2" max="2" width="51.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="82.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="82.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="191.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
+      <c r="C1" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="D1" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>57</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
+        <v>58</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>59</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="300" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="D13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>29</v>
+        <v>17</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>31</v>
+        <v>17</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>33</v>
+        <v>17</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>8</v>
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" t="s">
-        <v>101</v>
+        <v>20</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>39</v>
+        <v>20</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="D21" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>41</v>
+        <v>21</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="D22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="D23" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>45</v>
+        <v>22</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="D24" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>48</v>
+        <v>22</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="D25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>50</v>
+        <v>22</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="D26" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>52</v>
+        <v>23</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="D27" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>55</v>
+        <v>23</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="D28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>57</v>
+        <v>23</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="D29" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>60</v>
+      <c r="A30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="D30" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>62</v>
+      <c r="A31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="D31" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>64</v>
+      <c r="A32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="D32" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>67</v>
+        <v>26</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="D33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>69</v>
+        <v>26</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="D34" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>71</v>
+        <v>26</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="D35" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>73</v>
+        <v>27</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="D36" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>75</v>
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="D37" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>77</v>
+      <c r="A38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="D38" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>79</v>
+      <c r="A39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="D39" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>82</v>
+        <v>28</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="D40" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>84</v>
+        <v>28</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="D41" t="s">
-        <v>119</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D54" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>33</v>
+      </c>
+      <c r="B55" t="s">
+        <v>34</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D55" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D56" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>33</v>
+      </c>
+      <c r="B57" t="s">
+        <v>35</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D57" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>33</v>
+      </c>
+      <c r="B58" t="s">
+        <v>35</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D58" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>33</v>
+      </c>
+      <c r="B59" t="s">
+        <v>35</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D59" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>33</v>
+      </c>
+      <c r="B60" t="s">
+        <v>35</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D60" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>33</v>
+      </c>
+      <c r="B61" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D61" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>36</v>
+      </c>
+      <c r="B62" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D62" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>36</v>
+      </c>
+      <c r="B63" t="s">
+        <v>37</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D63" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>36</v>
+      </c>
+      <c r="B64" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D64" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>36</v>
+      </c>
+      <c r="B65" t="s">
+        <v>37</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D65" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>36</v>
+      </c>
+      <c r="B66" t="s">
+        <v>38</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D66" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>36</v>
+      </c>
+      <c r="B67" t="s">
+        <v>38</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D67" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>36</v>
+      </c>
+      <c r="B68" t="s">
+        <v>39</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D68" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>36</v>
+      </c>
+      <c r="B69" t="s">
+        <v>39</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D69" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>36</v>
+      </c>
+      <c r="B70" t="s">
+        <v>39</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D70" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>155</v>
+      </c>
+      <c r="B71" t="s">
+        <v>40</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D71" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>155</v>
+      </c>
+      <c r="B72" t="s">
+        <v>40</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D72" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>155</v>
+      </c>
+      <c r="B73" t="s">
+        <v>40</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D73" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>155</v>
+      </c>
+      <c r="B74" t="s">
+        <v>40</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D74" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>155</v>
+      </c>
+      <c r="B75" t="s">
+        <v>40</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D75" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>155</v>
+      </c>
+      <c r="B76" t="s">
+        <v>40</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D76" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>155</v>
+      </c>
+      <c r="B77" t="s">
+        <v>41</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>155</v>
+      </c>
+      <c r="B78" t="s">
+        <v>42</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D78" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>155</v>
+      </c>
+      <c r="B79" t="s">
+        <v>42</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D79" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>155</v>
+      </c>
+      <c r="B80" t="s">
+        <v>42</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D80" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>155</v>
+      </c>
+      <c r="B81" t="s">
+        <v>43</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D81" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>155</v>
+      </c>
+      <c r="B82" t="s">
+        <v>43</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D82" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>155</v>
+      </c>
+      <c r="B83" t="s">
+        <v>43</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D83" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D84" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D85" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D86" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D87" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D88" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D89" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D90" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D91" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D92" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D93" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D94" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D95" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D96" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D97" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D98" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>46</v>
+      </c>
+      <c r="B99" t="s">
+        <v>47</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D99" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>46</v>
+      </c>
+      <c r="B100" t="s">
+        <v>47</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D100" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>46</v>
+      </c>
+      <c r="B101" t="s">
+        <v>47</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D101" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>46</v>
+      </c>
+      <c r="B102" t="s">
+        <v>47</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D102" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>46</v>
+      </c>
+      <c r="B103" t="s">
+        <v>47</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D103" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>46</v>
+      </c>
+      <c r="B104" t="s">
+        <v>47</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D104" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>46</v>
+      </c>
+      <c r="B105" t="s">
+        <v>47</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D105" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>46</v>
+      </c>
+      <c r="B106" t="s">
+        <v>47</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D106" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -1919,6 +3009,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004CF95EF2F384F0419312B394CBDE3AE2" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="31f6efdc87a01d4ba6154ecd9afe69b2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="18fba281-3140-4e33-b78f-87df0c1efb23" xmlns:ns4="f7620e32-1325-4c29-861c-5840d24c4310" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ef933d5bbd2bd3eb58c8ad997b164a29" ns3:_="" ns4:_="">
     <xsd:import namespace="18fba281-3140-4e33-b78f-87df0c1efb23"/>
@@ -2147,12 +3243,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2163,6 +3253,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8D8A36-5C22-41CB-A499-AFEC79E65983}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="f7620e32-1325-4c29-861c-5840d24c4310"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="18fba281-3140-4e33-b78f-87df0c1efb23"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B26773F-2AA2-4186-A266-665DEBD79F00}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2181,23 +3288,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8D8A36-5C22-41CB-A499-AFEC79E65983}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="18fba281-3140-4e33-b78f-87df0c1efb23"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f7620e32-1325-4c29-861c-5840d24c4310"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CF3C6A2-6542-4AA0-8AFE-941499A10862}">
   <ds:schemaRefs>
